--- a/Método de identificación/KFOLD/k-fold_RE_PROMEDIO_binaria_balanceo2b.xlsx
+++ b/Método de identificación/KFOLD/k-fold_RE_PROMEDIO_binaria_balanceo2b.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nataly\Documents\Trabajo-de-grado_Artefactos\Método de identificación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nataly\Documents\Trabajo-de-grado_Artefactos\Método de identificación\KFOLD\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$330</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
@@ -554,10 +557,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:J330"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="J304" sqref="B58:J304"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -601,7 +605,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>315</v>
       </c>
@@ -633,7 +637,7 @@
         <v>0.95878905216870225</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>314</v>
       </c>
@@ -665,7 +669,7 @@
         <v>0.95831174705196942</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>267</v>
       </c>
@@ -697,7 +701,7 @@
         <v>0.95786871171893684</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>313</v>
       </c>
@@ -729,7 +733,7 @@
         <v>0.95768834591215135</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>312</v>
       </c>
@@ -761,7 +765,7 @@
         <v>0.95768129984352768</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>311</v>
       </c>
@@ -793,7 +797,7 @@
         <v>0.95755390391848239</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>310</v>
       </c>
@@ -825,7 +829,7 @@
         <v>0.95753117270892052</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>221</v>
       </c>
@@ -857,7 +861,7 @@
         <v>0.95745199377894363</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>220</v>
       </c>
@@ -889,7 +893,7 @@
         <v>0.95733582461184874</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>172</v>
       </c>
@@ -921,7 +925,7 @@
         <v>0.95706156394800401</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>268</v>
       </c>
@@ -953,7 +957,7 @@
         <v>0.95704439215081705</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>174</v>
       </c>
@@ -985,7 +989,7 @@
         <v>0.95702776126473632</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>171</v>
       </c>
@@ -1017,7 +1021,7 @@
         <v>0.95690167375114688</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>127</v>
       </c>
@@ -1049,7 +1053,7 @@
         <v>0.95686082672111461</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>29</v>
       </c>
@@ -1081,7 +1085,7 @@
         <v>0.9567861544881936</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>265</v>
       </c>
@@ -1113,7 +1117,7 @@
         <v>0.9567470528551647</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>309</v>
       </c>
@@ -1145,7 +1149,7 @@
         <v>0.95671360744632405</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>126</v>
       </c>
@@ -1177,7 +1181,7 @@
         <v>0.95664705786653337</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>219</v>
       </c>
@@ -1209,7 +1213,7 @@
         <v>0.95652983168150352</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>28</v>
       </c>
@@ -1241,7 +1245,7 @@
         <v>0.95652653901025841</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>263</v>
       </c>
@@ -1273,7 +1277,7 @@
         <v>0.95638605135537702</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>266</v>
       </c>
@@ -1305,7 +1309,7 @@
         <v>0.9563396692310876</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>218</v>
       </c>
@@ -1337,7 +1341,7 @@
         <v>0.95628975698653595</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>173</v>
       </c>
@@ -1369,7 +1373,7 @@
         <v>0.95624340695493104</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>123</v>
       </c>
@@ -1401,7 +1405,7 @@
         <v>0.9562303709479103</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>262</v>
       </c>
@@ -1433,7 +1437,7 @@
         <v>0.95614437198198843</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>264</v>
       </c>
@@ -1465,7 +1469,7 @@
         <v>0.95588103199248609</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>217</v>
       </c>
@@ -1497,7 +1501,7 @@
         <v>0.95586202637886875</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>168</v>
       </c>
@@ -1529,7 +1533,7 @@
         <v>0.95585927137776072</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>125</v>
       </c>
@@ -1561,7 +1565,7 @@
         <v>0.95584307789301992</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>122</v>
       </c>
@@ -1593,7 +1597,7 @@
         <v>0.95582856360991275</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>170</v>
       </c>
@@ -1625,7 +1629,7 @@
         <v>0.95573666224273701</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>169</v>
       </c>
@@ -1657,7 +1661,7 @@
         <v>0.95572372635194325</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>124</v>
       </c>
@@ -1689,7 +1693,7 @@
         <v>0.95549501662780634</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>33</v>
       </c>
@@ -1721,7 +1725,7 @@
         <v>0.95536716584010273</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>32</v>
       </c>
@@ -1753,7 +1757,7 @@
         <v>0.95535746058859106</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>30</v>
       </c>
@@ -1785,7 +1789,7 @@
         <v>0.95523331424633873</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>80</v>
       </c>
@@ -1817,7 +1821,7 @@
         <v>0.95514426149005716</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>79</v>
       </c>
@@ -1849,7 +1853,7 @@
         <v>0.95505992308178167</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>78</v>
       </c>
@@ -1881,7 +1885,7 @@
         <v>0.95488023538366718</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>27</v>
       </c>
@@ -1913,7 +1917,7 @@
         <v>0.95471408329046858</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>216</v>
       </c>
@@ -1945,7 +1949,7 @@
         <v>0.95449756856599821</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>75</v>
       </c>
@@ -1977,7 +1981,7 @@
         <v>0.95444450374111245</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>74</v>
       </c>
@@ -2009,7 +2013,7 @@
         <v>0.95442379375353326</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>77</v>
       </c>
@@ -2041,7 +2045,7 @@
         <v>0.95436858657390122</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>121</v>
       </c>
@@ -2073,7 +2077,7 @@
         <v>0.95434639102941121</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>261</v>
       </c>
@@ -2105,7 +2109,7 @@
         <v>0.95427592011131124</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>215</v>
       </c>
@@ -2137,7 +2141,7 @@
         <v>0.95405184325788628</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>31</v>
       </c>
@@ -2169,7 +2173,7 @@
         <v>0.95367238629489093</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>308</v>
       </c>
@@ -2201,7 +2205,7 @@
         <v>0.95329355093060952</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>26</v>
       </c>
@@ -2233,7 +2237,7 @@
         <v>0.95326274380400577</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>214</v>
       </c>
@@ -2265,7 +2269,7 @@
         <v>0.95324611059531117</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>167</v>
       </c>
@@ -2297,7 +2301,7 @@
         <v>0.95285562108388733</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>76</v>
       </c>
@@ -2329,7 +2333,7 @@
         <v>0.95277881391335173</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>73</v>
       </c>
@@ -2361,7 +2365,7 @@
         <v>0.95243410200425505</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>120</v>
       </c>
@@ -2395,1125 +2399,1125 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>256</v>
+        <v>21</v>
       </c>
       <c r="B58">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="C58" t="s">
         <v>30</v>
       </c>
       <c r="D58">
-        <v>0.93860440078056673</v>
+        <v>0.93587746625129808</v>
       </c>
       <c r="E58">
-        <v>0.93812072301753668</v>
+        <v>0.93567184715573593</v>
       </c>
       <c r="F58">
-        <v>0.93860440078056673</v>
+        <v>0.93587746625129808</v>
       </c>
       <c r="G58">
-        <v>0.94297884469902338</v>
+        <v>0.93861950702996988</v>
       </c>
       <c r="H58">
-        <v>0.93357398112558898</v>
+        <v>0.93277091400823653</v>
       </c>
       <c r="I58">
-        <v>0.94383164325309499</v>
+        <v>0.93902756614937677</v>
       </c>
       <c r="J58">
-        <v>0.93870281218934171</v>
+        <v>0.93589924007880665</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>303</v>
+        <v>16</v>
       </c>
       <c r="B59">
+        <v>2</v>
+      </c>
+      <c r="C59" t="s">
         <v>25</v>
       </c>
-      <c r="C59" t="s">
-        <v>30</v>
-      </c>
       <c r="D59">
-        <v>0.93834531164628254</v>
+        <v>0.93444963655244029</v>
       </c>
       <c r="E59">
-        <v>0.93778878431026558</v>
+        <v>0.93416125415913598</v>
       </c>
       <c r="F59">
-        <v>0.93834531164628254</v>
+        <v>0.93444963655244029</v>
       </c>
       <c r="G59">
-        <v>0.94265881952658803</v>
+        <v>0.93821598945525975</v>
       </c>
       <c r="H59">
-        <v>0.93328743986589247</v>
+        <v>0.93017152414504822</v>
       </c>
       <c r="I59">
-        <v>0.94355626775580825</v>
+        <v>0.93877280329719737</v>
       </c>
       <c r="J59">
-        <v>0.93842185381085041</v>
+        <v>0.93447216372112274</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>209</v>
+        <v>11</v>
       </c>
       <c r="B60">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C60" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D60">
-        <v>0.93834594249532011</v>
+        <v>0.93198338525441327</v>
       </c>
       <c r="E60">
-        <v>0.93795572858290421</v>
+        <v>0.93165723005937895</v>
       </c>
       <c r="F60">
-        <v>0.93834594249532011</v>
+        <v>0.93198338525441327</v>
       </c>
       <c r="G60">
-        <v>0.94285772644647436</v>
+        <v>0.93607380190569955</v>
       </c>
       <c r="H60">
-        <v>0.93333922063292651</v>
+        <v>0.92731413634584337</v>
       </c>
       <c r="I60">
-        <v>0.94346659654487774</v>
+        <v>0.93669911455755384</v>
       </c>
       <c r="J60">
-        <v>0.93840290858890196</v>
+        <v>0.93200662545169854</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>115</v>
+        <v>6</v>
       </c>
       <c r="B61">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C61" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D61">
-        <v>0.93782450674974027</v>
+        <v>0.93029595015576327</v>
       </c>
       <c r="E61">
-        <v>0.93758176773376034</v>
+        <v>0.92997254774898885</v>
       </c>
       <c r="F61">
-        <v>0.93782450674974027</v>
+        <v>0.93029595015576327</v>
       </c>
       <c r="G61">
-        <v>0.94165945408544138</v>
+        <v>0.93426290007912494</v>
       </c>
       <c r="H61">
-        <v>0.93366314497438052</v>
+        <v>0.92575967856206987</v>
       </c>
       <c r="I61">
-        <v>0.94209920731192642</v>
+        <v>0.93488342375392652</v>
       </c>
       <c r="J61">
-        <v>0.93788117614315358</v>
+        <v>0.93032155115799819</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>68</v>
+        <v>1</v>
       </c>
       <c r="B62">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C62" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D62">
-        <v>0.93769470404984423</v>
+        <v>0.92185877466251287</v>
       </c>
       <c r="E62">
-        <v>0.93739913091932991</v>
+        <v>0.92110172025009107</v>
       </c>
       <c r="F62">
-        <v>0.93769470404984423</v>
+        <v>0.92185877466251287</v>
       </c>
       <c r="G62">
-        <v>0.94083029867271772</v>
+        <v>0.93018069714485896</v>
       </c>
       <c r="H62">
-        <v>0.9340873795596899</v>
+        <v>0.91228231929630454</v>
       </c>
       <c r="I62">
-        <v>0.94153016474294093</v>
+        <v>0.93151327516652604</v>
       </c>
       <c r="J62">
-        <v>0.93780877215131542</v>
+        <v>0.92189779723141529</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>162</v>
+        <v>23</v>
       </c>
       <c r="B63">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C63" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D63">
-        <v>0.93756480873212378</v>
+        <v>0.85410176531671855</v>
       </c>
       <c r="E63">
-        <v>0.93727702323564976</v>
+        <v>0.86288923649055649</v>
       </c>
       <c r="F63">
-        <v>0.93756480873212378</v>
+        <v>0.85410176531671855</v>
       </c>
       <c r="G63">
-        <v>0.94117371109852854</v>
+        <v>0.81403853324519926</v>
       </c>
       <c r="H63">
-        <v>0.93362502740575404</v>
+        <v>0.91830685417212587</v>
       </c>
       <c r="I63">
-        <v>0.94167589814436425</v>
+        <v>0.79006327823985556</v>
       </c>
       <c r="J63">
-        <v>0.93765046277505915</v>
+        <v>0.85418506620599066</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>298</v>
+        <v>18</v>
       </c>
       <c r="B64">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="C64" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D64">
-        <v>0.9375669314504268</v>
+        <v>0.85124610591900307</v>
       </c>
       <c r="E64">
-        <v>0.93711059113044148</v>
+        <v>0.86041852128808649</v>
       </c>
       <c r="F64">
-        <v>0.9375669314504268</v>
+        <v>0.85124610591900307</v>
       </c>
       <c r="G64">
-        <v>0.94045715292287679</v>
+        <v>0.81070210660638642</v>
       </c>
       <c r="H64">
-        <v>0.93408965234330821</v>
+        <v>0.91700715924053178</v>
       </c>
       <c r="I64">
-        <v>0.94120759942436794</v>
+        <v>0.78566437299222613</v>
       </c>
       <c r="J64">
-        <v>0.93764862588383802</v>
+        <v>0.85133576611637884</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>251</v>
+        <v>13</v>
       </c>
       <c r="B65">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="C65" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D65">
-        <v>0.9374359060628491</v>
+        <v>0.84657320872274144</v>
       </c>
       <c r="E65">
-        <v>0.93705199028876685</v>
+        <v>0.8567072211564466</v>
       </c>
       <c r="F65">
-        <v>0.9374359060628491</v>
+        <v>0.84657320872274144</v>
       </c>
       <c r="G65">
-        <v>0.94054996311944561</v>
+        <v>0.80403120990150079</v>
       </c>
       <c r="H65">
-        <v>0.93384607687468413</v>
+        <v>0.91727486242805978</v>
       </c>
       <c r="I65">
-        <v>0.94120796001712947</v>
+        <v>0.77608286343740596</v>
       </c>
       <c r="J65">
-        <v>0.93752701844590658</v>
+        <v>0.84667886293273287</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>204</v>
+        <v>8</v>
       </c>
       <c r="B66">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C66" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D66">
-        <v>0.93717812130675204</v>
+        <v>0.83969366562824499</v>
       </c>
       <c r="E66">
-        <v>0.93690922590072656</v>
+        <v>0.85146754808054304</v>
       </c>
       <c r="F66">
-        <v>0.93717812130675204</v>
+        <v>0.83969366562824499</v>
       </c>
       <c r="G66">
-        <v>0.93993554093442411</v>
+        <v>0.79400804836428995</v>
       </c>
       <c r="H66">
-        <v>0.93411729268508359</v>
+        <v>0.91856485210814243</v>
       </c>
       <c r="I66">
-        <v>0.94033546685802649</v>
+        <v>0.76107045689089037</v>
       </c>
       <c r="J66">
-        <v>0.93722637977155487</v>
+        <v>0.8398176544995164</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>110</v>
+        <v>22</v>
       </c>
       <c r="B67">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C67" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D67">
-        <v>0.93704569055036335</v>
+        <v>0.83346313603322952</v>
       </c>
       <c r="E67">
-        <v>0.93688112142606206</v>
+        <v>0.82881597311230726</v>
       </c>
       <c r="F67">
-        <v>0.93704569055036335</v>
+        <v>0.83346313603322952</v>
       </c>
       <c r="G67">
-        <v>0.93994695562612751</v>
+        <v>0.85269659134551323</v>
       </c>
       <c r="H67">
-        <v>0.93394953675655379</v>
+        <v>0.80638832005331418</v>
       </c>
       <c r="I67">
-        <v>0.94026363772934929</v>
+        <v>0.8606431023159965</v>
       </c>
       <c r="J67">
-        <v>0.93710658724295148</v>
+        <v>0.83351571118465539</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>157</v>
+        <v>17</v>
       </c>
       <c r="B68">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C68" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D68">
-        <v>0.93678626172789592</v>
+        <v>0.83346313603322952</v>
       </c>
       <c r="E68">
-        <v>0.93652835762966957</v>
+        <v>0.82877067966740126</v>
       </c>
       <c r="F68">
-        <v>0.93678626172789592</v>
+        <v>0.83346313603322952</v>
       </c>
       <c r="G68">
-        <v>0.93992510120054473</v>
+        <v>0.85288372281109637</v>
       </c>
       <c r="H68">
-        <v>0.93336396162447988</v>
+        <v>0.80612708703346048</v>
       </c>
       <c r="I68">
-        <v>0.94038747554456703</v>
+        <v>0.86090110025201305</v>
       </c>
       <c r="J68">
-        <v>0.93687571858452345</v>
+        <v>0.83351409364273676</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="B69">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C69" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D69">
-        <v>0.936656282450675</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="E69">
-        <v>0.93641939307446309</v>
+        <v>0.82861492995315478</v>
       </c>
       <c r="F69">
-        <v>0.936656282450675</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="G69">
-        <v>0.93909767454657955</v>
+        <v>0.85284179244904168</v>
       </c>
       <c r="H69">
-        <v>0.93385869107610442</v>
+        <v>0.80586585401360677</v>
       </c>
       <c r="I69">
-        <v>0.93970317526164426</v>
+        <v>0.86090110025201305</v>
       </c>
       <c r="J69">
-        <v>0.93678093316887434</v>
+        <v>0.83338347713280991</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>152</v>
+        <v>7</v>
       </c>
       <c r="B70">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C70" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D70">
-        <v>0.93613741640978998</v>
+        <v>0.83307372793354095</v>
       </c>
       <c r="E70">
-        <v>0.93590477110635073</v>
+        <v>0.82834719233601961</v>
       </c>
       <c r="F70">
-        <v>0.93613741640978998</v>
+        <v>0.83307372793354095</v>
       </c>
       <c r="G70">
-        <v>0.9386867694313018</v>
+        <v>0.85256355093540781</v>
       </c>
       <c r="H70">
-        <v>0.93337973094498561</v>
+        <v>0.80560785607759022</v>
       </c>
       <c r="I70">
-        <v>0.93909789019566658</v>
+        <v>0.86063986723215935</v>
       </c>
       <c r="J70">
-        <v>0.9362388105703261</v>
+        <v>0.83312386165487473</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>293</v>
+        <v>2</v>
       </c>
       <c r="B71">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="C71" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D71">
-        <v>0.93614004118858507</v>
+        <v>0.83216510903426788</v>
       </c>
       <c r="E71">
-        <v>0.93570963100234894</v>
+        <v>0.82753005509281918</v>
       </c>
       <c r="F71">
-        <v>0.93614004118858507</v>
+        <v>0.83216510903426788</v>
       </c>
       <c r="G71">
-        <v>0.9382148922093263</v>
+        <v>0.85110275852226025</v>
       </c>
       <c r="H71">
-        <v>0.93357790500044724</v>
+        <v>0.80534015289006211</v>
       </c>
       <c r="I71">
-        <v>0.9388931076355671</v>
+        <v>0.85907893928071144</v>
       </c>
       <c r="J71">
-        <v>0.93623550631800745</v>
+        <v>0.83220954608538689</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>246</v>
+        <v>3</v>
       </c>
       <c r="B72">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="C72" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D72">
-        <v>0.93613922347082956</v>
+        <v>0.82892004153686405</v>
       </c>
       <c r="E72">
-        <v>0.93580872078814181</v>
+        <v>0.84367556309238168</v>
       </c>
       <c r="F72">
-        <v>0.93613922347082956</v>
+        <v>0.82892004153686405</v>
       </c>
       <c r="G72">
-        <v>0.93862138777995274</v>
+        <v>0.77704032812298007</v>
       </c>
       <c r="H72">
-        <v>0.93336292058619852</v>
+        <v>0.92323146054329996</v>
       </c>
       <c r="I72">
-        <v>0.93909808005967044</v>
+        <v>0.73480238490380478</v>
       </c>
       <c r="J72">
-        <v>0.93623050032293453</v>
+        <v>0.82901692272355232</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>199</v>
+        <v>4</v>
       </c>
       <c r="B73">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C73" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D73">
-        <v>0.93588063206839145</v>
+        <v>0.77401349948078924</v>
       </c>
       <c r="E73">
-        <v>0.935625211830582</v>
+        <v>0.7694323702916066</v>
       </c>
       <c r="F73">
-        <v>0.93588063206839145</v>
+        <v>0.77401349948078924</v>
       </c>
       <c r="G73">
-        <v>0.93864987856483617</v>
+        <v>0.78558793334912735</v>
       </c>
       <c r="H73">
-        <v>0.9328997411612121</v>
+        <v>0.75422016686562432</v>
       </c>
       <c r="I73">
-        <v>0.93903756719856191</v>
+        <v>0.79395912795080092</v>
       </c>
       <c r="J73">
-        <v>0.93596865417988695</v>
+        <v>0.77408964740821262</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>105</v>
+        <v>9</v>
       </c>
       <c r="B74">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C74" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D74">
-        <v>0.93587746625129797</v>
+        <v>0.7642782969885773</v>
       </c>
       <c r="E74">
-        <v>0.93570088988002198</v>
+        <v>0.76093031123491173</v>
       </c>
       <c r="F74">
-        <v>0.93587746625129797</v>
+        <v>0.7642782969885773</v>
       </c>
       <c r="G74">
-        <v>0.93863201088962966</v>
+        <v>0.77201799552994377</v>
       </c>
       <c r="H74">
-        <v>0.93291543414516476</v>
+        <v>0.75029843648398153</v>
       </c>
       <c r="I74">
-        <v>0.93897421412943249</v>
+        <v>0.77835955368783383</v>
       </c>
       <c r="J74">
-        <v>0.93594482413729874</v>
+        <v>0.76432899508590768</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B75">
         <v>2</v>
       </c>
       <c r="C75" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D75">
-        <v>0.93587746625129808</v>
+        <v>0.762331256490135</v>
       </c>
       <c r="E75">
-        <v>0.93567184715573593</v>
+        <v>0.75936846590956197</v>
       </c>
       <c r="F75">
-        <v>0.93587746625129808</v>
+        <v>0.762331256490135</v>
       </c>
       <c r="G75">
-        <v>0.93861950702996988</v>
+        <v>0.7690749700272943</v>
       </c>
       <c r="H75">
-        <v>0.93277091400823653</v>
+        <v>0.75003396838029057</v>
       </c>
       <c r="I75">
-        <v>0.93902756614937677</v>
+        <v>0.77472493699674216</v>
       </c>
       <c r="J75">
-        <v>0.93589924007880665</v>
+        <v>0.76237945268851648</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="B76">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C76" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D76">
-        <v>0.93509865005192105</v>
+        <v>0.76025441329179655</v>
       </c>
       <c r="E76">
-        <v>0.93481154486441842</v>
+        <v>0.75771124429372261</v>
       </c>
       <c r="F76">
-        <v>0.93509865005192105</v>
+        <v>0.76025441329179655</v>
       </c>
       <c r="G76">
-        <v>0.9382282643159342</v>
+        <v>0.76594734603348225</v>
       </c>
       <c r="H76">
-        <v>0.93152633818554298</v>
+        <v>0.74977273536043687</v>
       </c>
       <c r="I76">
-        <v>0.93892219455318837</v>
+        <v>0.77082908728579702</v>
       </c>
       <c r="J76">
-        <v>0.93522426636936573</v>
+        <v>0.76030091132311695</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B77">
         <v>2</v>
       </c>
       <c r="C77" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D77">
-        <v>0.93444963655244029</v>
+        <v>0.75843717549325018</v>
       </c>
       <c r="E77">
-        <v>0.93416125415913598</v>
+        <v>0.75613066329037126</v>
       </c>
       <c r="F77">
-        <v>0.93444963655244029</v>
+        <v>0.75843717549325018</v>
       </c>
       <c r="G77">
-        <v>0.93821598945525975</v>
+        <v>0.76352222399636949</v>
       </c>
       <c r="H77">
-        <v>0.93017152414504822</v>
+        <v>0.74898903630087577</v>
       </c>
       <c r="I77">
-        <v>0.93877280329719737</v>
+        <v>0.76797169948659216</v>
       </c>
       <c r="J77">
-        <v>0.93447216372112274</v>
+        <v>0.75848036789373396</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>288</v>
+        <v>5</v>
       </c>
       <c r="B78">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="C78" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D78">
-        <v>0.93393435043920481</v>
+        <v>0.5</v>
       </c>
       <c r="E78">
-        <v>0.9333527947452529</v>
+        <v>0</v>
       </c>
       <c r="F78">
-        <v>0.93393435043920481</v>
+        <v>0.5</v>
       </c>
       <c r="G78">
-        <v>0.93767461847471023</v>
+        <v>0</v>
       </c>
       <c r="H78">
-        <v>0.92942973695530062</v>
+        <v>0</v>
       </c>
       <c r="I78">
-        <v>0.93866546798429173</v>
+        <v>1</v>
       </c>
       <c r="J78">
-        <v>0.93404760246979623</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>147</v>
+        <v>10</v>
       </c>
       <c r="B79">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C79" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D79">
-        <v>0.93393130863947993</v>
+        <v>0.5</v>
       </c>
       <c r="E79">
-        <v>0.93358971225101972</v>
+        <v>0</v>
       </c>
       <c r="F79">
-        <v>0.93393130863947993</v>
+        <v>0.5</v>
       </c>
       <c r="G79">
-        <v>0.93773974380637282</v>
+        <v>0</v>
       </c>
       <c r="H79">
-        <v>0.92973680395161584</v>
+        <v>0</v>
       </c>
       <c r="I79">
-        <v>0.93833450082972392</v>
+        <v>1</v>
       </c>
       <c r="J79">
-        <v>0.93403565239066977</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>241</v>
+        <v>15</v>
       </c>
       <c r="B80">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="C80" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D80">
-        <v>0.93393311351860575</v>
+        <v>0.5</v>
       </c>
       <c r="E80">
-        <v>0.93350842735516992</v>
+        <v>0</v>
       </c>
       <c r="F80">
-        <v>0.93393311351860575</v>
+        <v>0.5</v>
       </c>
       <c r="G80">
-        <v>0.93792263797286135</v>
+        <v>0</v>
       </c>
       <c r="H80">
-        <v>0.92947614747745677</v>
+        <v>0</v>
       </c>
       <c r="I80">
-        <v>0.9385273379441319</v>
+        <v>1</v>
       </c>
       <c r="J80">
-        <v>0.9340017427107945</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="B81">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C81" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D81">
-        <v>0.93393042575285568</v>
+        <v>0.5</v>
       </c>
       <c r="E81">
-        <v>0.93366757570185643</v>
+        <v>0</v>
       </c>
       <c r="F81">
-        <v>0.93393042575285568</v>
+        <v>0.5</v>
       </c>
       <c r="G81">
-        <v>0.93748479119537376</v>
+        <v>0</v>
       </c>
       <c r="H81">
-        <v>0.9300191018345445</v>
+        <v>0</v>
       </c>
       <c r="I81">
-        <v>0.93794095751402895</v>
+        <v>1</v>
       </c>
       <c r="J81">
-        <v>0.93398002967428684</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>194</v>
+        <v>25</v>
       </c>
       <c r="B82">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C82" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="D82">
-        <v>0.93380486495113058</v>
+        <v>0.5</v>
       </c>
       <c r="E82">
-        <v>0.93341664043928751</v>
+        <v>0</v>
       </c>
       <c r="F82">
-        <v>0.93380486495113058</v>
+        <v>0.5</v>
       </c>
       <c r="G82">
-        <v>0.93771538552600542</v>
+        <v>0</v>
       </c>
       <c r="H82">
-        <v>0.92945790410730333</v>
+        <v>0</v>
       </c>
       <c r="I82">
-        <v>0.93826767828120239</v>
+        <v>1</v>
       </c>
       <c r="J82">
-        <v>0.93386279119425275</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="B83">
         <v>4</v>
       </c>
       <c r="C83" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D83">
-        <v>0.93367082035306337</v>
+        <v>0.93769470404984423</v>
       </c>
       <c r="E83">
-        <v>0.93337367024958806</v>
+        <v>0.93739913091932991</v>
       </c>
       <c r="F83">
-        <v>0.93367082035306337</v>
+        <v>0.93769470404984423</v>
       </c>
       <c r="G83">
-        <v>0.93690199699956433</v>
+        <v>0.94083029867271772</v>
       </c>
       <c r="H83">
-        <v>0.92997191016387037</v>
+        <v>0.9340873795596899</v>
       </c>
       <c r="I83">
-        <v>0.9376111741021449</v>
+        <v>0.94153016474294093</v>
       </c>
       <c r="J83">
-        <v>0.93379154213300763</v>
+        <v>0.93780877215131542</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="B84">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C84" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D84">
-        <v>0.93198338525441327</v>
+        <v>0.936656282450675</v>
       </c>
       <c r="E84">
-        <v>0.93165723005937895</v>
+        <v>0.93641939307446309</v>
       </c>
       <c r="F84">
-        <v>0.93198338525441327</v>
+        <v>0.936656282450675</v>
       </c>
       <c r="G84">
-        <v>0.93607380190569955</v>
+        <v>0.93909767454657955</v>
       </c>
       <c r="H84">
-        <v>0.92731413634584337</v>
+        <v>0.93385869107610442</v>
       </c>
       <c r="I84">
-        <v>0.93669911455755384</v>
+        <v>0.93970317526164426</v>
       </c>
       <c r="J84">
-        <v>0.93200662545169854</v>
+        <v>0.93678093316887434</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="B85">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C85" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D85">
-        <v>0.93029595015576327</v>
+        <v>0.93509865005192105</v>
       </c>
       <c r="E85">
-        <v>0.92997254774898885</v>
+        <v>0.93481154486441842</v>
       </c>
       <c r="F85">
-        <v>0.93029595015576327</v>
+        <v>0.93509865005192105</v>
       </c>
       <c r="G85">
-        <v>0.93426290007912494</v>
+        <v>0.9382282643159342</v>
       </c>
       <c r="H85">
-        <v>0.92575967856206987</v>
+        <v>0.93152633818554298</v>
       </c>
       <c r="I85">
-        <v>0.93488342375392652</v>
+        <v>0.93892219455318837</v>
       </c>
       <c r="J85">
-        <v>0.93032155115799819</v>
+        <v>0.93522426636936573</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>236</v>
+        <v>53</v>
       </c>
       <c r="B86">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="C86" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D86">
-        <v>0.92913128322454741</v>
+        <v>0.93367082035306337</v>
       </c>
       <c r="E86">
-        <v>0.92848194375644577</v>
+        <v>0.93337367024958806</v>
       </c>
       <c r="F86">
-        <v>0.92913128322454741</v>
+        <v>0.93367082035306337</v>
       </c>
       <c r="G86">
-        <v>0.93471244359659678</v>
+        <v>0.93690199699956433</v>
       </c>
       <c r="H86">
-        <v>0.92272222926687708</v>
+        <v>0.92997191016387037</v>
       </c>
       <c r="I86">
-        <v>0.93565482827557245</v>
+        <v>0.9376111741021449</v>
       </c>
       <c r="J86">
-        <v>0.92918852877122471</v>
+        <v>0.93379154213300763</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>283</v>
+        <v>48</v>
       </c>
       <c r="B87">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="C87" t="s">
         <v>10</v>
       </c>
       <c r="D87">
-        <v>0.92887445887445896</v>
+        <v>0.92666147455867076</v>
       </c>
       <c r="E87">
-        <v>0.92793017318975202</v>
+        <v>0.92599972445144418</v>
       </c>
       <c r="F87">
-        <v>0.92887445887445896</v>
+        <v>0.92666147455867076</v>
       </c>
       <c r="G87">
-        <v>0.93446063477940111</v>
+        <v>0.93342892817196055</v>
       </c>
       <c r="H87">
-        <v>0.92182472372641955</v>
+        <v>0.91874554569810996</v>
       </c>
       <c r="I87">
-        <v>0.93614996218733781</v>
+        <v>0.9347451206193107</v>
       </c>
       <c r="J87">
-        <v>0.92898734295687846</v>
+        <v>0.92674533315871033</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>142</v>
+        <v>70</v>
       </c>
       <c r="B88">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C88" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="D88">
-        <v>0.92860831775228658</v>
+        <v>0.85695742471443404</v>
       </c>
       <c r="E88">
-        <v>0.92800656919109004</v>
+        <v>0.86493019801738724</v>
       </c>
       <c r="F88">
-        <v>0.92860831775228658</v>
+        <v>0.85695742471443404</v>
       </c>
       <c r="G88">
-        <v>0.93494278969303113</v>
+        <v>0.81939976630196587</v>
       </c>
       <c r="H88">
-        <v>0.92143891620650265</v>
+        <v>0.91641732240026519</v>
       </c>
       <c r="I88">
-        <v>0.93594464984058834</v>
+        <v>0.79811041798552229</v>
       </c>
       <c r="J88">
-        <v>0.9286917830235456</v>
+        <v>0.85726387019289374</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>189</v>
+        <v>65</v>
       </c>
       <c r="B89">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C89" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="D89">
-        <v>0.92835233693636199</v>
+        <v>0.85695742471443404</v>
       </c>
       <c r="E89">
-        <v>0.92766734358194691</v>
+        <v>0.86503133604071958</v>
       </c>
       <c r="F89">
-        <v>0.92835233693636199</v>
+        <v>0.85695742471443404</v>
       </c>
       <c r="G89">
-        <v>0.9345879669350815</v>
+        <v>0.81897137025745526</v>
       </c>
       <c r="H89">
-        <v>0.92118851839158933</v>
+        <v>0.91718405023881966</v>
       </c>
       <c r="I89">
-        <v>0.93568700908884839</v>
+        <v>0.79733055706779987</v>
       </c>
       <c r="J89">
-        <v>0.9284377637402188</v>
+        <v>0.85725730365330988</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="B90">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C90" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D90">
-        <v>0.92808930425752856</v>
+        <v>0.85345275181723779</v>
       </c>
       <c r="E90">
-        <v>0.92752249790293151</v>
+        <v>0.86229363138658588</v>
       </c>
       <c r="F90">
-        <v>0.92808930425752856</v>
+        <v>0.85345275181723779</v>
       </c>
       <c r="G90">
-        <v>0.93411375523035323</v>
+        <v>0.81347766214483286</v>
       </c>
       <c r="H90">
-        <v>0.92117223539669391</v>
+        <v>0.91794741508907185</v>
       </c>
       <c r="I90">
-        <v>0.9350973078525151</v>
+        <v>0.78954527323644386</v>
       </c>
       <c r="J90">
-        <v>0.92813477162460445</v>
+        <v>0.85374634416275785</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B91">
         <v>4</v>
       </c>
       <c r="C91" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D91">
-        <v>0.92666147455867076</v>
+        <v>0.84994807892004154</v>
       </c>
       <c r="E91">
-        <v>0.92599972445144418</v>
+        <v>0.8596155307409844</v>
       </c>
       <c r="F91">
-        <v>0.92666147455867076</v>
+        <v>0.84994807892004154</v>
       </c>
       <c r="G91">
-        <v>0.93342892817196055</v>
+        <v>0.80806455971576319</v>
       </c>
       <c r="H91">
-        <v>0.91874554569810996</v>
+        <v>0.91894972881660719</v>
       </c>
       <c r="I91">
-        <v>0.9347451206193107</v>
+        <v>0.78158016334388869</v>
       </c>
       <c r="J91">
-        <v>0.92674533315871033</v>
+        <v>0.85026494608024783</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="B92">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C92" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D92">
-        <v>0.92185877466251287</v>
+        <v>0.83385254413291798</v>
       </c>
       <c r="E92">
-        <v>0.92110172025009107</v>
+        <v>0.84723360059843589</v>
       </c>
       <c r="F92">
-        <v>0.92185877466251287</v>
+        <v>0.83385254413291798</v>
       </c>
       <c r="G92">
-        <v>0.93018069714485896</v>
+        <v>0.78504228970424961</v>
       </c>
       <c r="H92">
-        <v>0.91228231929630454</v>
+        <v>0.92098118690945441</v>
       </c>
       <c r="I92">
-        <v>0.93151327516652604</v>
+        <v>0.74724284590996526</v>
       </c>
       <c r="J92">
-        <v>0.92189779723141529</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.83411201640970978</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>269</v>
       </c>
@@ -3545,7 +3549,7 @@
         <v>0.88053684575208035</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>128</v>
       </c>
@@ -3577,7 +3581,7 @@
         <v>0.88053109879872737</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>222</v>
       </c>
@@ -3609,7 +3613,7 @@
         <v>0.88043254326663045</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>175</v>
       </c>
@@ -3641,7 +3645,7 @@
         <v>0.88037027289842895</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>316</v>
       </c>
@@ -3673,7 +3677,7 @@
         <v>0.88022044224421636</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>34</v>
       </c>
@@ -3705,7 +3709,7 @@
         <v>0.88020282358117319</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>81</v>
       </c>
@@ -3739,738 +3743,738 @@
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>258</v>
+        <v>69</v>
       </c>
       <c r="B100">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="C100" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D100">
-        <v>0.86072236054101336</v>
+        <v>0.83385254413291798</v>
       </c>
       <c r="E100">
-        <v>0.8679857472867194</v>
+        <v>0.82932268320151126</v>
       </c>
       <c r="F100">
-        <v>0.86072236054101336</v>
+        <v>0.83385254413291798</v>
       </c>
       <c r="G100">
-        <v>0.8241775132071899</v>
+        <v>0.85230685785088833</v>
       </c>
       <c r="H100">
-        <v>0.91746797255079215</v>
+        <v>0.80766404140496872</v>
       </c>
       <c r="I100">
-        <v>0.80466969809113265</v>
+        <v>0.86020086235938509</v>
       </c>
       <c r="J100">
-        <v>0.86106883532096234</v>
+        <v>0.83393245188217702</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>305</v>
+        <v>64</v>
       </c>
       <c r="B101">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="C101" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D101">
-        <v>0.86046358172571757</v>
+        <v>0.83372274143302183</v>
       </c>
       <c r="E101">
-        <v>0.86724150710231018</v>
+        <v>0.82907984064410722</v>
       </c>
       <c r="F101">
-        <v>0.86046358172571757</v>
+        <v>0.83372274143302183</v>
       </c>
       <c r="G101">
-        <v>0.82328710889247791</v>
+        <v>0.85267957347468637</v>
       </c>
       <c r="H101">
-        <v>0.91718128275351585</v>
+        <v>0.80689873528251965</v>
       </c>
       <c r="I101">
-        <v>0.80463818881917859</v>
+        <v>0.86072940358560079</v>
       </c>
       <c r="J101">
-        <v>0.86090973578634733</v>
+        <v>0.83381406943406033</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>211</v>
+        <v>54</v>
       </c>
       <c r="B102">
+        <v>4</v>
+      </c>
+      <c r="C102" t="s">
         <v>16</v>
       </c>
-      <c r="C102" t="s">
-        <v>32</v>
-      </c>
       <c r="D102">
-        <v>0.86058932376359754</v>
+        <v>0.83359293873312568</v>
       </c>
       <c r="E102">
-        <v>0.86773536750595359</v>
+        <v>0.82887838170297001</v>
       </c>
       <c r="F102">
-        <v>0.86058932376359754</v>
+        <v>0.83359293873312568</v>
       </c>
       <c r="G102">
-        <v>0.82345094210197256</v>
+        <v>0.85284415354498089</v>
       </c>
       <c r="H102">
-        <v>0.91763175920311668</v>
+        <v>0.80638267290767407</v>
       </c>
       <c r="I102">
-        <v>0.80401025173302243</v>
+        <v>0.86099367419870854</v>
       </c>
       <c r="J102">
-        <v>0.86082100546806928</v>
+        <v>0.83368817355319136</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>253</v>
+        <v>59</v>
       </c>
       <c r="B103">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="C103" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D103">
-        <v>0.85929479846578283</v>
+        <v>0.83346313603322952</v>
       </c>
       <c r="E103">
-        <v>0.86684459468233366</v>
+        <v>0.82881192765156342</v>
       </c>
       <c r="F103">
-        <v>0.85929479846578283</v>
+        <v>0.83346313603322952</v>
       </c>
       <c r="G103">
-        <v>0.8222118670325026</v>
+        <v>0.85239711828283937</v>
       </c>
       <c r="H103">
-        <v>0.91748802400208052</v>
+        <v>0.80663777494849032</v>
       </c>
       <c r="I103">
-        <v>0.80190094357770081</v>
+        <v>0.86046513297249294</v>
       </c>
       <c r="J103">
-        <v>0.85969448378989066</v>
+        <v>0.83355145396049179</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>300</v>
+        <v>49</v>
       </c>
       <c r="B104">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="C104" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="D104">
-        <v>0.85864624049090077</v>
+        <v>0.83307372793354106</v>
       </c>
       <c r="E104">
-        <v>0.86576140540439295</v>
+        <v>0.82835536044578961</v>
       </c>
       <c r="F104">
-        <v>0.85864624049090077</v>
+        <v>0.83307372793354106</v>
       </c>
       <c r="G104">
-        <v>0.82064025433567256</v>
+        <v>0.85228446538902403</v>
       </c>
       <c r="H104">
-        <v>0.91726842527926333</v>
+        <v>0.8058802683914511</v>
       </c>
       <c r="I104">
-        <v>0.80108158362884452</v>
+        <v>0.86044580536804649</v>
       </c>
       <c r="J104">
-        <v>0.85917500445405404</v>
+        <v>0.83316303687974891</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>206</v>
+        <v>51</v>
       </c>
       <c r="B105">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C105" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D105">
-        <v>0.85877181442534134</v>
+        <v>0.76622533748701982</v>
       </c>
       <c r="E105">
-        <v>0.86623049080849479</v>
+        <v>0.76190040867449271</v>
       </c>
       <c r="F105">
-        <v>0.85877181442534134</v>
+        <v>0.76622533748701982</v>
       </c>
       <c r="G105">
-        <v>0.82094748660335015</v>
+        <v>0.77624531085987569</v>
       </c>
       <c r="H105">
-        <v>0.91742456280301643</v>
+        <v>0.74826476333490521</v>
       </c>
       <c r="I105">
-        <v>0.80064184308393715</v>
+        <v>0.78428816073044327</v>
       </c>
       <c r="J105">
-        <v>0.85903320294347674</v>
+        <v>0.7662764620326743</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>117</v>
+        <v>56</v>
       </c>
       <c r="B106">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C106" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="D106">
-        <v>0.85877466251298018</v>
+        <v>0.75246625129802691</v>
       </c>
       <c r="E106">
-        <v>0.86643272571543162</v>
+        <v>0.74938672142252627</v>
       </c>
       <c r="F106">
-        <v>0.85877466251298018</v>
+        <v>0.75246625129802691</v>
       </c>
       <c r="G106">
-        <v>0.82125561827624716</v>
+        <v>0.75884505287406523</v>
       </c>
       <c r="H106">
-        <v>0.91741338577508325</v>
+        <v>0.74038349730973019</v>
       </c>
       <c r="I106">
-        <v>0.80061622423052814</v>
+        <v>0.7646735930614128</v>
       </c>
       <c r="J106">
-        <v>0.85901480500280591</v>
+        <v>0.75252854518557144</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>164</v>
+        <v>66</v>
       </c>
       <c r="B107">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C107" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D107">
-        <v>0.85890191520541703</v>
+        <v>0.75103842159916923</v>
       </c>
       <c r="E107">
-        <v>0.86648976331065464</v>
+        <v>0.74888501424117371</v>
       </c>
       <c r="F107">
-        <v>0.85890191520541703</v>
+        <v>0.75103842159916923</v>
       </c>
       <c r="G107">
-        <v>0.82239766781989432</v>
+        <v>0.75554379167197805</v>
       </c>
       <c r="H107">
-        <v>0.9158143647234992</v>
+        <v>0.74253631746190685</v>
       </c>
       <c r="I107">
-        <v>0.80213058118582337</v>
+        <v>0.75966542261186576</v>
       </c>
       <c r="J107">
-        <v>0.85897247295466106</v>
+        <v>0.7511008700368863</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>112</v>
+        <v>61</v>
       </c>
       <c r="B108">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C108" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D108">
-        <v>0.85812564901349953</v>
+        <v>0.75064901349948077</v>
       </c>
       <c r="E108">
-        <v>0.8659924708360629</v>
+        <v>0.74834671484008952</v>
       </c>
       <c r="F108">
-        <v>0.85812564901349953</v>
+        <v>0.75064901349948077</v>
       </c>
       <c r="G108">
-        <v>0.81981074321874481</v>
+        <v>0.75535472009398297</v>
       </c>
       <c r="H108">
-        <v>0.91818571810568739</v>
+        <v>0.74169700070530031</v>
       </c>
       <c r="I108">
-        <v>0.79858798603847903</v>
+        <v>0.75975080578477983</v>
       </c>
       <c r="J108">
-        <v>0.8583868520720831</v>
+        <v>0.75072390324504001</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>159</v>
+        <v>71</v>
       </c>
       <c r="B109">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C109" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D109">
-        <v>0.85799383495881543</v>
+        <v>0.74740394600207682</v>
       </c>
       <c r="E109">
-        <v>0.86581363282289803</v>
+        <v>0.74571561572019252</v>
       </c>
       <c r="F109">
-        <v>0.85799383495881543</v>
+        <v>0.74740394600207682</v>
       </c>
       <c r="G109">
-        <v>0.82079042473014785</v>
+        <v>0.75080137585986162</v>
       </c>
       <c r="H109">
-        <v>0.9163346946851233</v>
+        <v>0.74094053326044351</v>
       </c>
       <c r="I109">
-        <v>0.79984049271493796</v>
+        <v>0.75405998052820133</v>
       </c>
       <c r="J109">
-        <v>0.85808759370003052</v>
+        <v>0.74750025689432231</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="B110">
         <v>4</v>
       </c>
       <c r="C110" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="D110">
-        <v>0.85695742471443404</v>
+        <v>0.5</v>
       </c>
       <c r="E110">
-        <v>0.86493019801738724</v>
+        <v>0</v>
       </c>
       <c r="F110">
-        <v>0.85695742471443404</v>
+        <v>0.5</v>
       </c>
       <c r="G110">
-        <v>0.81939976630196587</v>
+        <v>0</v>
       </c>
       <c r="H110">
-        <v>0.91641732240026519</v>
+        <v>0</v>
       </c>
       <c r="I110">
-        <v>0.79811041798552229</v>
+        <v>1</v>
       </c>
       <c r="J110">
-        <v>0.85726387019289374</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B111">
         <v>4</v>
       </c>
       <c r="C111" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D111">
-        <v>0.85695742471443404</v>
+        <v>0.5</v>
       </c>
       <c r="E111">
-        <v>0.86503133604071958</v>
+        <v>0</v>
       </c>
       <c r="F111">
-        <v>0.85695742471443404</v>
+        <v>0.5</v>
       </c>
       <c r="G111">
-        <v>0.81897137025745526</v>
+        <v>0</v>
       </c>
       <c r="H111">
-        <v>0.91718405023881966</v>
+        <v>0</v>
       </c>
       <c r="I111">
-        <v>0.79733055706779987</v>
+        <v>1</v>
       </c>
       <c r="J111">
-        <v>0.85725730365330988</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>248</v>
+        <v>62</v>
       </c>
       <c r="B112">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="C112" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D112">
-        <v>0.85656887154296457</v>
+        <v>0.5</v>
       </c>
       <c r="E112">
-        <v>0.86461678888032156</v>
+        <v>0</v>
       </c>
       <c r="F112">
-        <v>0.85656887154296457</v>
+        <v>0.5</v>
       </c>
       <c r="G112">
-        <v>0.81821624312466223</v>
+        <v>0</v>
       </c>
       <c r="H112">
-        <v>0.91748502979021951</v>
+        <v>0</v>
       </c>
       <c r="I112">
-        <v>0.79649008674315414</v>
+        <v>1</v>
       </c>
       <c r="J112">
-        <v>0.85698755826668671</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>201</v>
+        <v>67</v>
       </c>
       <c r="B113">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C113" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D113">
-        <v>0.85643455456733453</v>
+        <v>0.5</v>
       </c>
       <c r="E113">
-        <v>0.86439116308170294</v>
+        <v>0</v>
       </c>
       <c r="F113">
-        <v>0.85643455456733453</v>
+        <v>0.5</v>
       </c>
       <c r="G113">
-        <v>0.81742192900473387</v>
+        <v>0</v>
       </c>
       <c r="H113">
-        <v>0.91769840079323139</v>
+        <v>0</v>
       </c>
       <c r="I113">
-        <v>0.79570495294228982</v>
+        <v>1</v>
       </c>
       <c r="J113">
-        <v>0.85670167686776055</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="B114">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C114" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="D114">
-        <v>0.85643821391484931</v>
+        <v>0.5</v>
       </c>
       <c r="E114">
-        <v>0.86473884645397736</v>
+        <v>0</v>
       </c>
       <c r="F114">
-        <v>0.85643821391484931</v>
+        <v>0.5</v>
       </c>
       <c r="G114">
-        <v>0.81671523917504507</v>
+        <v>0</v>
       </c>
       <c r="H114">
-        <v>0.91918605987024682</v>
+        <v>0</v>
       </c>
       <c r="I114">
-        <v>0.79410109438240761</v>
+        <v>1</v>
       </c>
       <c r="J114">
-        <v>0.85664357712632733</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <v>154</v>
+        <v>115</v>
       </c>
       <c r="B115">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D115">
-        <v>0.85630602860174854</v>
+        <v>0.93782450674974027</v>
       </c>
       <c r="E115">
-        <v>0.86462713706861805</v>
+        <v>0.93758176773376034</v>
       </c>
       <c r="F115">
-        <v>0.85630602860174854</v>
+        <v>0.93782450674974027</v>
       </c>
       <c r="G115">
-        <v>0.81759637058743606</v>
+        <v>0.94165945408544138</v>
       </c>
       <c r="H115">
-        <v>0.91765731068936807</v>
+        <v>0.93366314497438052</v>
       </c>
       <c r="I115">
-        <v>0.79514021540948665</v>
+        <v>0.94209920731192642</v>
       </c>
       <c r="J115">
-        <v>0.8563987630494273</v>
+        <v>0.93788117614315358</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <v>295</v>
+        <v>110</v>
       </c>
       <c r="B116">
+        <v>8</v>
+      </c>
+      <c r="C116" t="s">
         <v>25</v>
       </c>
-      <c r="C116" t="s">
-        <v>22</v>
-      </c>
       <c r="D116">
-        <v>0.85579330055058223</v>
+        <v>0.93704569055036335</v>
       </c>
       <c r="E116">
-        <v>0.8634716888650783</v>
+        <v>0.93688112142606206</v>
       </c>
       <c r="F116">
-        <v>0.85579330055058223</v>
+        <v>0.93704569055036335</v>
       </c>
       <c r="G116">
-        <v>0.81649496121934884</v>
+        <v>0.93994695562612751</v>
       </c>
       <c r="H116">
-        <v>0.9173315623028071</v>
+        <v>0.93394953675655379</v>
       </c>
       <c r="I116">
-        <v>0.79544068138999624</v>
+        <v>0.94026363772934929</v>
       </c>
       <c r="J116">
-        <v>0.85638612184640162</v>
+        <v>0.93710658724295148</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
-        <v>290</v>
+        <v>105</v>
       </c>
       <c r="B117">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D117">
-        <v>0.8537145378892953</v>
+        <v>0.93587746625129797</v>
       </c>
       <c r="E117">
-        <v>0.8620036946622015</v>
+        <v>0.93570088988002198</v>
       </c>
       <c r="F117">
-        <v>0.8537145378892953</v>
+        <v>0.93587746625129797</v>
       </c>
       <c r="G117">
-        <v>0.81251312472100068</v>
+        <v>0.93863201088962966</v>
       </c>
       <c r="H117">
-        <v>0.91914383114648135</v>
+        <v>0.93291543414516476</v>
       </c>
       <c r="I117">
-        <v>0.78964845827110119</v>
+        <v>0.93897421412943249</v>
       </c>
       <c r="J117">
-        <v>0.85439614470879133</v>
+        <v>0.93594482413729874</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <v>196</v>
+        <v>100</v>
       </c>
       <c r="B118">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D118">
-        <v>0.85396978330069606</v>
+        <v>0.93393042575285568</v>
       </c>
       <c r="E118">
-        <v>0.86258907375159344</v>
+        <v>0.93366757570185643</v>
       </c>
       <c r="F118">
-        <v>0.85396978330069606</v>
+        <v>0.93393042575285568</v>
       </c>
       <c r="G118">
-        <v>0.812861587732711</v>
+        <v>0.93748479119537376</v>
       </c>
       <c r="H118">
-        <v>0.919497360554137</v>
+        <v>0.9300191018345445</v>
       </c>
       <c r="I118">
-        <v>0.78908545415190612</v>
+        <v>0.93794095751402895</v>
       </c>
       <c r="J118">
-        <v>0.85429140735302156</v>
+        <v>0.93398002967428684</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <v>149</v>
+        <v>95</v>
       </c>
       <c r="B119">
+        <v>8</v>
+      </c>
+      <c r="C119" t="s">
         <v>10</v>
       </c>
-      <c r="C119" t="s">
-        <v>17</v>
-      </c>
       <c r="D119">
-        <v>0.85409941550019364</v>
+        <v>0.92808930425752856</v>
       </c>
       <c r="E119">
-        <v>0.86317205258024909</v>
+        <v>0.92752249790293151</v>
       </c>
       <c r="F119">
-        <v>0.85409941550019364</v>
+        <v>0.92808930425752856</v>
       </c>
       <c r="G119">
-        <v>0.8130115792941629</v>
+        <v>0.93411375523035323</v>
       </c>
       <c r="H119">
-        <v>0.9202267815857692</v>
+        <v>0.92117223539669391</v>
       </c>
       <c r="I119">
-        <v>0.78816311982578779</v>
+        <v>0.9350973078525151</v>
       </c>
       <c r="J119">
-        <v>0.85419495070577867</v>
+        <v>0.92813477162460445</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <v>23</v>
+        <v>117</v>
       </c>
       <c r="B120">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
         <v>32</v>
       </c>
       <c r="D120">
-        <v>0.85410176531671855</v>
+        <v>0.85877466251298018</v>
       </c>
       <c r="E120">
-        <v>0.86288923649055649</v>
+        <v>0.86643272571543162</v>
       </c>
       <c r="F120">
-        <v>0.85410176531671855</v>
+        <v>0.85877466251298018</v>
       </c>
       <c r="G120">
-        <v>0.81403853324519926</v>
+        <v>0.82125561827624716</v>
       </c>
       <c r="H120">
-        <v>0.91830685417212587</v>
+        <v>0.91741338577508325</v>
       </c>
       <c r="I120">
-        <v>0.79006327823985556</v>
+        <v>0.80061622423052814</v>
       </c>
       <c r="J120">
-        <v>0.85418506620599066</v>
+        <v>0.85901480500280591</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
-        <v>243</v>
+        <v>112</v>
       </c>
       <c r="B121">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D121">
-        <v>0.85371273803916292</v>
+        <v>0.85812564901349953</v>
       </c>
       <c r="E121">
-        <v>0.86253479936252098</v>
+        <v>0.8659924708360629</v>
       </c>
       <c r="F121">
-        <v>0.85371273803916292</v>
+        <v>0.85812564901349953</v>
       </c>
       <c r="G121">
-        <v>0.81328346011381591</v>
+        <v>0.81981074321874481</v>
       </c>
       <c r="H121">
-        <v>0.91907110363466271</v>
+        <v>0.91818571810568739</v>
       </c>
       <c r="I121">
-        <v>0.78914060125307506</v>
+        <v>0.79858798603847903</v>
       </c>
       <c r="J121">
-        <v>0.85410585244386872</v>
+        <v>0.8583868520720831</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="B122">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
         <v>22</v>
       </c>
       <c r="D122">
-        <v>0.85345275181723779</v>
+        <v>0.85643821391484931</v>
       </c>
       <c r="E122">
-        <v>0.86229363138658588</v>
+        <v>0.86473884645397736</v>
       </c>
       <c r="F122">
-        <v>0.85345275181723779</v>
+        <v>0.85643821391484931</v>
       </c>
       <c r="G122">
-        <v>0.81347766214483286</v>
+        <v>0.81671523917504507</v>
       </c>
       <c r="H122">
-        <v>0.91794741508907185</v>
+        <v>0.91918605987024682</v>
       </c>
       <c r="I122">
-        <v>0.78954527323644386</v>
+        <v>0.79410109438240761</v>
       </c>
       <c r="J122">
-        <v>0.85374634416275785</v>
+        <v>0.85664357712632733</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
@@ -4507,1477 +4511,1477 @@
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="B124">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D124">
-        <v>0.85124610591900307</v>
+        <v>0.83631879543094501</v>
       </c>
       <c r="E124">
-        <v>0.86041852128808649</v>
+        <v>0.84898145156590332</v>
       </c>
       <c r="F124">
-        <v>0.85124610591900307</v>
+        <v>0.83631879543094501</v>
       </c>
       <c r="G124">
-        <v>0.81070210660638642</v>
+        <v>0.78762947642514591</v>
       </c>
       <c r="H124">
-        <v>0.91700715924053178</v>
+        <v>0.92128454024164885</v>
       </c>
       <c r="I124">
-        <v>0.78566437299222613</v>
+        <v>0.75187947793212051</v>
       </c>
       <c r="J124">
-        <v>0.85133576611637884</v>
+        <v>0.83658200908688463</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="B125">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D125">
-        <v>0.84994807892004154</v>
+        <v>0.83398234683281414</v>
       </c>
       <c r="E125">
-        <v>0.8596155307409844</v>
+        <v>0.82942801452319292</v>
       </c>
       <c r="F125">
-        <v>0.84994807892004154</v>
+        <v>0.83398234683281414</v>
       </c>
       <c r="G125">
-        <v>0.80806455971576319</v>
+        <v>0.85235671137167979</v>
       </c>
       <c r="H125">
-        <v>0.91894972881660719</v>
+        <v>0.80803619434112894</v>
       </c>
       <c r="I125">
-        <v>0.78158016334388869</v>
+        <v>0.86002024090392315</v>
       </c>
       <c r="J125">
-        <v>0.85026494608024783</v>
+        <v>0.83402821762252588</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
-        <v>13</v>
+        <v>106</v>
       </c>
       <c r="B126">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D126">
-        <v>0.84657320872274144</v>
+        <v>0.83385254413291787</v>
       </c>
       <c r="E126">
-        <v>0.8567072211564466</v>
+        <v>0.82931683776604515</v>
       </c>
       <c r="F126">
-        <v>0.84657320872274144</v>
+        <v>0.83385254413291787</v>
       </c>
       <c r="G126">
-        <v>0.80403120990150079</v>
+        <v>0.8521366369277964</v>
       </c>
       <c r="H126">
-        <v>0.91727486242805978</v>
+        <v>0.80803619434112894</v>
       </c>
       <c r="I126">
-        <v>0.77608286343740596</v>
+        <v>0.85976842302851908</v>
       </c>
       <c r="J126">
-        <v>0.84667886293273287</v>
+        <v>0.83390230868482396</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
-        <v>285</v>
+        <v>111</v>
       </c>
       <c r="B127">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D127">
-        <v>0.83917580801075942</v>
+        <v>0.83385254413291798</v>
       </c>
       <c r="E127">
-        <v>0.85068849863200924</v>
+        <v>0.82931987198622004</v>
       </c>
       <c r="F127">
-        <v>0.83917580801075942</v>
+        <v>0.83385254413291798</v>
       </c>
       <c r="G127">
-        <v>0.79161558294628132</v>
+        <v>0.85212411745501804</v>
       </c>
       <c r="H127">
-        <v>0.92069892442029611</v>
+        <v>0.80803619434112894</v>
       </c>
       <c r="I127">
-        <v>0.75900596613172544</v>
+        <v>0.85975818639658563</v>
       </c>
       <c r="J127">
-        <v>0.83985244527601055</v>
+        <v>0.83389719036885712</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
+        <v>116</v>
+      </c>
+      <c r="B128">
         <v>8</v>
       </c>
-      <c r="B128">
-        <v>2</v>
-      </c>
       <c r="C128" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D128">
-        <v>0.83969366562824499</v>
+        <v>0.83372274143302183</v>
       </c>
       <c r="E128">
-        <v>0.85146754808054304</v>
+        <v>0.82921195953975135</v>
       </c>
       <c r="F128">
-        <v>0.83969366562824499</v>
+        <v>0.83372274143302183</v>
       </c>
       <c r="G128">
-        <v>0.79400804836428995</v>
+        <v>0.85189254818116089</v>
       </c>
       <c r="H128">
-        <v>0.91856485210814243</v>
+        <v>0.80803619434112894</v>
       </c>
       <c r="I128">
-        <v>0.76107045689089037</v>
+        <v>0.85949613188924812</v>
       </c>
       <c r="J128">
-        <v>0.8398176544995164</v>
+        <v>0.83376616311518836</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
-        <v>191</v>
+        <v>96</v>
       </c>
       <c r="B129">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D129">
-        <v>0.83813491515773664</v>
+        <v>0.83307372793354095</v>
       </c>
       <c r="E129">
-        <v>0.85015123221994371</v>
+        <v>0.8284096244483603</v>
       </c>
       <c r="F129">
-        <v>0.83813491515773664</v>
+        <v>0.83307372793354095</v>
       </c>
       <c r="G129">
-        <v>0.79062676643670349</v>
+        <v>0.851718933848163</v>
       </c>
       <c r="H129">
-        <v>0.92027525111487929</v>
+        <v>0.80674638121480613</v>
       </c>
       <c r="I129">
-        <v>0.75668536943379161</v>
+        <v>0.85952026379834967</v>
       </c>
       <c r="J129">
-        <v>0.83848031027433556</v>
+        <v>0.83313332250657779</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
-        <v>144</v>
+        <v>98</v>
       </c>
       <c r="B130">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D130">
-        <v>0.83826452406218943</v>
+        <v>0.76388888888888895</v>
       </c>
       <c r="E130">
-        <v>0.850723504234422</v>
+        <v>0.75987666814751986</v>
       </c>
       <c r="F130">
-        <v>0.83826452406218943</v>
+        <v>0.76388888888888895</v>
       </c>
       <c r="G130">
-        <v>0.79042587079853543</v>
+        <v>0.77275331647940304</v>
       </c>
       <c r="H130">
-        <v>0.92123614132092002</v>
+        <v>0.74786681121203247</v>
       </c>
       <c r="I130">
-        <v>0.75529165231980055</v>
+        <v>0.77994414324372929</v>
       </c>
       <c r="J130">
-        <v>0.83826389682036029</v>
+        <v>0.76390547722788082</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
-        <v>238</v>
+        <v>103</v>
       </c>
       <c r="B131">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D131">
-        <v>0.83761624385976707</v>
+        <v>0.75610072689511953</v>
       </c>
       <c r="E131">
-        <v>0.84985941716446312</v>
+        <v>0.75323855974245801</v>
       </c>
       <c r="F131">
-        <v>0.83761624385976707</v>
+        <v>0.75610072689511953</v>
       </c>
       <c r="G131">
-        <v>0.79019964951254784</v>
+        <v>0.76186403149661108</v>
       </c>
       <c r="H131">
-        <v>0.92031742512417014</v>
+        <v>0.74529042548830848</v>
       </c>
       <c r="I131">
-        <v>0.75570671036660675</v>
+        <v>0.76714695286823498</v>
       </c>
       <c r="J131">
-        <v>0.83801206774538861</v>
+        <v>0.75621868917827162</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="B132">
         <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D132">
-        <v>0.83631879543094501</v>
+        <v>0.75350467289719625</v>
       </c>
       <c r="E132">
-        <v>0.84898145156590332</v>
+        <v>0.75137379667509818</v>
       </c>
       <c r="F132">
-        <v>0.83631879543094501</v>
+        <v>0.75350467289719625</v>
       </c>
       <c r="G132">
-        <v>0.78762947642514591</v>
+        <v>0.75780876014489329</v>
       </c>
       <c r="H132">
-        <v>0.92128454024164885</v>
+        <v>0.74561066043920654</v>
       </c>
       <c r="I132">
-        <v>0.75187947793212051</v>
+        <v>0.76167738445143818</v>
       </c>
       <c r="J132">
-        <v>0.83658200908688463</v>
+        <v>0.75364402244532225</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
-        <v>163</v>
+        <v>113</v>
       </c>
       <c r="B133">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D133">
-        <v>0.83449997473343773</v>
+        <v>0.75155763239875384</v>
       </c>
       <c r="E133">
-        <v>0.83009442774020969</v>
+        <v>0.74989923700854655</v>
       </c>
       <c r="F133">
-        <v>0.83449997473343773</v>
+        <v>0.75155763239875384</v>
       </c>
       <c r="G133">
-        <v>0.85255014442318777</v>
+        <v>0.75485632744333842</v>
       </c>
       <c r="H133">
-        <v>0.80904323226572727</v>
+        <v>0.74561250922801381</v>
       </c>
       <c r="I133">
-        <v>0.86007779080367786</v>
+        <v>0.75779757662992908</v>
       </c>
       <c r="J133">
-        <v>0.83456051153470256</v>
+        <v>0.75170504292897145</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
-        <v>289</v>
+        <v>118</v>
       </c>
       <c r="B134">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="D134">
-        <v>0.83399024923296783</v>
+        <v>0.75025960539979231</v>
       </c>
       <c r="E134">
-        <v>0.82903912719841333</v>
+        <v>0.7488690258062124</v>
       </c>
       <c r="F134">
-        <v>0.83399024923296783</v>
+        <v>0.75025960539979231</v>
       </c>
       <c r="G134">
-        <v>0.85245904971540454</v>
+        <v>0.75304472590673532</v>
       </c>
       <c r="H134">
-        <v>0.80783123474553564</v>
+        <v>0.74535895953227338</v>
       </c>
       <c r="I134">
-        <v>0.8608734314854104</v>
+        <v>0.75543684089022012</v>
       </c>
       <c r="J134">
-        <v>0.83435233311547263</v>
+        <v>0.75039790021124686</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
-        <v>294</v>
+        <v>99</v>
       </c>
       <c r="B135">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D135">
-        <v>0.83399024923296783</v>
+        <v>0.49999999999999989</v>
       </c>
       <c r="E135">
-        <v>0.82903912719841333</v>
+        <v>0</v>
       </c>
       <c r="F135">
-        <v>0.83399024923296783</v>
+        <v>0.49999999999999989</v>
       </c>
       <c r="G135">
-        <v>0.85245904971540454</v>
+        <v>0</v>
       </c>
       <c r="H135">
-        <v>0.80783123474553564</v>
+        <v>0</v>
       </c>
       <c r="I135">
-        <v>0.8608734314854104</v>
+        <v>1</v>
       </c>
       <c r="J135">
-        <v>0.83435233311547263</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
-        <v>284</v>
+        <v>104</v>
       </c>
       <c r="B136">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D136">
-        <v>0.83399108981633274</v>
+        <v>0.49999999999999989</v>
       </c>
       <c r="E136">
-        <v>0.82901615047359867</v>
+        <v>0</v>
       </c>
       <c r="F136">
-        <v>0.83399108981633274</v>
+        <v>0.49999999999999989</v>
       </c>
       <c r="G136">
-        <v>0.85252221953012386</v>
+        <v>0</v>
       </c>
       <c r="H136">
-        <v>0.80780849005818633</v>
+        <v>0</v>
       </c>
       <c r="I136">
-        <v>0.86087650787228742</v>
+        <v>1</v>
       </c>
       <c r="J136">
-        <v>0.83434249896523671</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
-        <v>205</v>
+        <v>109</v>
       </c>
       <c r="B137">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D137">
-        <v>0.83424298660294516</v>
+        <v>0.49999999999999989</v>
       </c>
       <c r="E137">
-        <v>0.82963269358248137</v>
+        <v>0</v>
       </c>
       <c r="F137">
-        <v>0.83424298660294516</v>
+        <v>0.49999999999999989</v>
       </c>
       <c r="G137">
-        <v>0.85270549005569896</v>
+        <v>0</v>
       </c>
       <c r="H137">
-        <v>0.80834516144131607</v>
+        <v>0</v>
       </c>
       <c r="I137">
-        <v>0.86032529352334086</v>
+        <v>1</v>
       </c>
       <c r="J137">
-        <v>0.83433522748232847</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
-        <v>299</v>
+        <v>114</v>
       </c>
       <c r="B138">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D138">
-        <v>0.83386037910309752</v>
+        <v>0.49999999999999989</v>
       </c>
       <c r="E138">
-        <v>0.82893508853207432</v>
+        <v>0</v>
       </c>
       <c r="F138">
-        <v>0.83386037910309752</v>
+        <v>0.49999999999999989</v>
       </c>
       <c r="G138">
-        <v>0.85225163504939105</v>
+        <v>0</v>
       </c>
       <c r="H138">
-        <v>0.80783123474553564</v>
+        <v>0</v>
       </c>
       <c r="I138">
-        <v>0.86061027359067355</v>
+        <v>1</v>
       </c>
       <c r="J138">
-        <v>0.83422075416810448</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
-        <v>304</v>
+        <v>119</v>
       </c>
       <c r="B139">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D139">
-        <v>0.83386037910309752</v>
+        <v>0.49999999999999989</v>
       </c>
       <c r="E139">
-        <v>0.82893508853207432</v>
+        <v>0</v>
       </c>
       <c r="F139">
-        <v>0.83386037910309752</v>
+        <v>0.49999999999999989</v>
       </c>
       <c r="G139">
-        <v>0.85225163504939105</v>
+        <v>0</v>
       </c>
       <c r="H139">
-        <v>0.80783123474553564</v>
+        <v>0</v>
       </c>
       <c r="I139">
-        <v>0.86061027359067355</v>
+        <v>1</v>
       </c>
       <c r="J139">
-        <v>0.83422075416810448</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
-        <v>200</v>
+        <v>162</v>
       </c>
       <c r="B140">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C140" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D140">
-        <v>0.83411358813329761</v>
+        <v>0.93756480873212378</v>
       </c>
       <c r="E140">
-        <v>0.82947012604480974</v>
+        <v>0.93727702323564976</v>
       </c>
       <c r="F140">
-        <v>0.83411358813329761</v>
+        <v>0.93756480873212378</v>
       </c>
       <c r="G140">
-        <v>0.85267380832229434</v>
+        <v>0.94117371109852854</v>
       </c>
       <c r="H140">
-        <v>0.80809109640066568</v>
+        <v>0.93362502740575404</v>
       </c>
       <c r="I140">
-        <v>0.86034056722813068</v>
+        <v>0.94167589814436425</v>
       </c>
       <c r="J140">
-        <v>0.83421583181439818</v>
+        <v>0.93765046277505915</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
-        <v>195</v>
+        <v>157</v>
       </c>
       <c r="B141">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C141" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D141">
-        <v>0.83411358813329761</v>
+        <v>0.93678626172789592</v>
       </c>
       <c r="E141">
-        <v>0.82943612583920334</v>
+        <v>0.93652835762966957</v>
       </c>
       <c r="F141">
-        <v>0.83411358813329761</v>
+        <v>0.93678626172789592</v>
       </c>
       <c r="G141">
-        <v>0.85290467728067432</v>
+        <v>0.93992510120054473</v>
       </c>
       <c r="H141">
-        <v>0.80783067973399902</v>
+        <v>0.93336396162447988</v>
       </c>
       <c r="I141">
-        <v>0.86057920226361873</v>
+        <v>0.94038747554456703</v>
       </c>
       <c r="J141">
-        <v>0.83420494099880893</v>
+        <v>0.93687571858452345</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
-        <v>210</v>
+        <v>152</v>
       </c>
       <c r="B142">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C142" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D142">
-        <v>0.83411331855315263</v>
+        <v>0.93613741640978998</v>
       </c>
       <c r="E142">
-        <v>0.82952741200524871</v>
+        <v>0.93590477110635073</v>
       </c>
       <c r="F142">
-        <v>0.83411331855315263</v>
+        <v>0.93613741640978998</v>
       </c>
       <c r="G142">
-        <v>0.85248145799107522</v>
+        <v>0.9386867694313018</v>
       </c>
       <c r="H142">
-        <v>0.80834516144131607</v>
+        <v>0.93337973094498561</v>
       </c>
       <c r="I142">
-        <v>0.86004857700106385</v>
+        <v>0.93909789019566658</v>
       </c>
       <c r="J142">
-        <v>0.83419686922118996</v>
+        <v>0.9362388105703261</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
-        <v>257</v>
+        <v>147</v>
       </c>
       <c r="B143">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C143" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="D143">
-        <v>0.83385505686023809</v>
+        <v>0.93393130863947993</v>
       </c>
       <c r="E143">
-        <v>0.8291060192069033</v>
+        <v>0.93358971225101972</v>
       </c>
       <c r="F143">
-        <v>0.83385505686023809</v>
+        <v>0.93393130863947993</v>
       </c>
       <c r="G143">
-        <v>0.85224335032293763</v>
+        <v>0.93773974380637282</v>
       </c>
       <c r="H143">
-        <v>0.80793654814351468</v>
+        <v>0.92973680395161584</v>
       </c>
       <c r="I143">
-        <v>0.8604244671782576</v>
+        <v>0.93833450082972392</v>
       </c>
       <c r="J143">
-        <v>0.83418050766088625</v>
+        <v>0.93403565239066977</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B144">
         <v>10</v>
       </c>
       <c r="C144" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D144">
-        <v>0.8341107012313238</v>
+        <v>0.92860831775228658</v>
       </c>
       <c r="E144">
-        <v>0.82962455029833637</v>
+        <v>0.92800656919109004</v>
       </c>
       <c r="F144">
-        <v>0.8341107012313238</v>
+        <v>0.92860831775228658</v>
       </c>
       <c r="G144">
-        <v>0.85241305958191005</v>
+        <v>0.93494278969303113</v>
       </c>
       <c r="H144">
-        <v>0.80826451260284782</v>
+        <v>0.92143891620650265</v>
       </c>
       <c r="I144">
-        <v>0.86008565692775085</v>
+        <v>0.93594464984058834</v>
       </c>
       <c r="J144">
-        <v>0.83417508476529922</v>
+        <v>0.9286917830235456</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="B145">
         <v>10</v>
       </c>
       <c r="C145" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D145">
-        <v>0.8341107012313238</v>
+        <v>0.85890191520541703</v>
       </c>
       <c r="E145">
-        <v>0.8297159220990673</v>
+        <v>0.86648976331065464</v>
       </c>
       <c r="F145">
-        <v>0.8341107012313238</v>
+        <v>0.85890191520541703</v>
       </c>
       <c r="G145">
-        <v>0.85202508972093161</v>
+        <v>0.82239766781989432</v>
       </c>
       <c r="H145">
-        <v>0.80877868200117697</v>
+        <v>0.9158143647234992</v>
       </c>
       <c r="I145">
-        <v>0.85956799757840785</v>
+        <v>0.80213058118582337</v>
       </c>
       <c r="J145">
-        <v>0.83417333978979236</v>
+        <v>0.85897247295466106</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="B146">
         <v>10</v>
       </c>
       <c r="C146" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D146">
-        <v>0.8341107012313238</v>
+        <v>0.85799383495881543</v>
       </c>
       <c r="E146">
-        <v>0.82966821094958987</v>
+        <v>0.86581363282289803</v>
       </c>
       <c r="F146">
-        <v>0.8341107012313238</v>
+        <v>0.85799383495881543</v>
       </c>
       <c r="G146">
-        <v>0.85222186064149474</v>
+        <v>0.82079042473014785</v>
       </c>
       <c r="H146">
-        <v>0.80851961464366406</v>
+        <v>0.9163346946851233</v>
       </c>
       <c r="I146">
-        <v>0.8598218046850068</v>
+        <v>0.79984049271493796</v>
       </c>
       <c r="J146">
-        <v>0.83417070966433537</v>
+        <v>0.85808759370003052</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
-        <v>50</v>
+        <v>154</v>
       </c>
       <c r="B147">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C147" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D147">
-        <v>0.83385254413291798</v>
+        <v>0.85630602860174854</v>
       </c>
       <c r="E147">
-        <v>0.84723360059843589</v>
+        <v>0.86462713706861805</v>
       </c>
       <c r="F147">
-        <v>0.83385254413291798</v>
+        <v>0.85630602860174854</v>
       </c>
       <c r="G147">
-        <v>0.78504228970424961</v>
+        <v>0.81759637058743606</v>
       </c>
       <c r="H147">
-        <v>0.92098118690945441</v>
+        <v>0.91765731068936807</v>
       </c>
       <c r="I147">
-        <v>0.74724284590996526</v>
+        <v>0.79514021540948665</v>
       </c>
       <c r="J147">
-        <v>0.83411201640970978</v>
+        <v>0.8563987630494273</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
-        <v>252</v>
+        <v>149</v>
       </c>
       <c r="B148">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C148" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D148">
-        <v>0.833725186730368</v>
+        <v>0.85409941550019364</v>
       </c>
       <c r="E148">
-        <v>0.82899734287100446</v>
+        <v>0.86317205258024909</v>
       </c>
       <c r="F148">
-        <v>0.833725186730368</v>
+        <v>0.85409941550019364</v>
       </c>
       <c r="G148">
-        <v>0.85200201707055467</v>
+        <v>0.8130115792941629</v>
       </c>
       <c r="H148">
-        <v>0.80793654814351468</v>
+        <v>0.9202267815857692</v>
       </c>
       <c r="I148">
-        <v>0.86015272804782283</v>
+        <v>0.78816311982578779</v>
       </c>
       <c r="J148">
-        <v>0.83404463809566887</v>
+        <v>0.85419495070577867</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="B149">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C149" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D149">
-        <v>0.83398234683281414</v>
+        <v>0.83826452406218943</v>
       </c>
       <c r="E149">
-        <v>0.82942801452319292</v>
+        <v>0.850723504234422</v>
       </c>
       <c r="F149">
-        <v>0.83398234683281414</v>
+        <v>0.83826452406218943</v>
       </c>
       <c r="G149">
-        <v>0.85235671137167979</v>
+        <v>0.79042587079853543</v>
       </c>
       <c r="H149">
-        <v>0.80803619434112894</v>
+        <v>0.92123614132092002</v>
       </c>
       <c r="I149">
-        <v>0.86002024090392315</v>
+        <v>0.75529165231980055</v>
       </c>
       <c r="J149">
-        <v>0.83402821762252588</v>
+        <v>0.83826389682036029</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="B150">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C150" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="D150">
-        <v>0.83385425203371266</v>
+        <v>0.83449997473343773</v>
       </c>
       <c r="E150">
-        <v>0.82904292432824889</v>
+        <v>0.83009442774020969</v>
       </c>
       <c r="F150">
-        <v>0.83385425203371266</v>
+        <v>0.83449997473343773</v>
       </c>
       <c r="G150">
-        <v>0.85301019203063644</v>
+        <v>0.85255014442318777</v>
       </c>
       <c r="H150">
-        <v>0.80703316566992267</v>
+        <v>0.80904323226572727</v>
       </c>
       <c r="I150">
-        <v>0.86088919599710045</v>
+        <v>0.86007779080367786</v>
       </c>
       <c r="J150">
-        <v>0.83396118083351167</v>
+        <v>0.83456051153470256</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
-        <v>69</v>
+        <v>148</v>
       </c>
       <c r="B151">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C151" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="D151">
-        <v>0.83385254413291798</v>
+        <v>0.8341107012313238</v>
       </c>
       <c r="E151">
-        <v>0.82932268320151126</v>
+        <v>0.82962455029833637</v>
       </c>
       <c r="F151">
-        <v>0.83385254413291798</v>
+        <v>0.8341107012313238</v>
       </c>
       <c r="G151">
-        <v>0.85230685785088833</v>
+        <v>0.85241305958191005</v>
       </c>
       <c r="H151">
-        <v>0.80766404140496872</v>
+        <v>0.80826451260284782</v>
       </c>
       <c r="I151">
-        <v>0.86020086235938509</v>
+        <v>0.86008565692775085</v>
       </c>
       <c r="J151">
-        <v>0.83393245188217702</v>
+        <v>0.83417508476529922</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
-        <v>106</v>
+        <v>158</v>
       </c>
       <c r="B152">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C152" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D152">
-        <v>0.83385254413291787</v>
+        <v>0.8341107012313238</v>
       </c>
       <c r="E152">
-        <v>0.82931683776604515</v>
+        <v>0.8297159220990673</v>
       </c>
       <c r="F152">
-        <v>0.83385254413291787</v>
+        <v>0.8341107012313238</v>
       </c>
       <c r="G152">
-        <v>0.8521366369277964</v>
+        <v>0.85202508972093161</v>
       </c>
       <c r="H152">
-        <v>0.80803619434112894</v>
+        <v>0.80877868200117697</v>
       </c>
       <c r="I152">
-        <v>0.85976842302851908</v>
+        <v>0.85956799757840785</v>
       </c>
       <c r="J152">
-        <v>0.83390230868482396</v>
+        <v>0.83417333978979236</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
-        <v>111</v>
+        <v>153</v>
       </c>
       <c r="B153">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C153" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D153">
-        <v>0.83385254413291798</v>
+        <v>0.8341107012313238</v>
       </c>
       <c r="E153">
-        <v>0.82931987198622004</v>
+        <v>0.82966821094958987</v>
       </c>
       <c r="F153">
-        <v>0.83385254413291798</v>
+        <v>0.8341107012313238</v>
       </c>
       <c r="G153">
-        <v>0.85212411745501804</v>
+        <v>0.85222186064149474</v>
       </c>
       <c r="H153">
-        <v>0.80803619434112894</v>
+        <v>0.80851961464366406</v>
       </c>
       <c r="I153">
-        <v>0.85975818639658563</v>
+        <v>0.8598218046850068</v>
       </c>
       <c r="J153">
-        <v>0.83389719036885712</v>
+        <v>0.83417070966433537</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
-        <v>64</v>
+        <v>143</v>
       </c>
       <c r="B154">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C154" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="D154">
-        <v>0.83372274143302183</v>
+        <v>0.8335913891555915</v>
       </c>
       <c r="E154">
-        <v>0.82907984064410722</v>
+        <v>0.82923368777356665</v>
       </c>
       <c r="F154">
-        <v>0.83372274143302183</v>
+        <v>0.8335913891555915</v>
       </c>
       <c r="G154">
-        <v>0.85267957347468637</v>
+        <v>0.85132205895864066</v>
       </c>
       <c r="H154">
-        <v>0.80689873528251965</v>
+        <v>0.80854911944210683</v>
       </c>
       <c r="I154">
-        <v>0.86072940358560079</v>
+        <v>0.85879444207504108</v>
       </c>
       <c r="J154">
-        <v>0.83381406943406033</v>
+        <v>0.83367178075857384</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
-        <v>247</v>
+        <v>145</v>
       </c>
       <c r="B155">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C155" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D155">
-        <v>0.8334654464706277</v>
+        <v>0.767394343658935</v>
       </c>
       <c r="E155">
-        <v>0.82868098617135766</v>
+        <v>0.76314429720326404</v>
       </c>
       <c r="F155">
-        <v>0.8334654464706277</v>
+        <v>0.767394343658935</v>
       </c>
       <c r="G155">
-        <v>0.85192435032979108</v>
+        <v>0.77745451232332174</v>
       </c>
       <c r="H155">
-        <v>0.8074246340298723</v>
+        <v>0.74983761596848597</v>
       </c>
       <c r="I155">
-        <v>0.86015272804782283</v>
+        <v>0.78526011063556111</v>
       </c>
       <c r="J155">
-        <v>0.83378868103884773</v>
+        <v>0.76754886330202354</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
-        <v>116</v>
+        <v>150</v>
       </c>
       <c r="B156">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C156" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D156">
-        <v>0.83372274143302183</v>
+        <v>0.75701079724426024</v>
       </c>
       <c r="E156">
-        <v>0.82921195953975135</v>
+        <v>0.75429593884208856</v>
       </c>
       <c r="F156">
-        <v>0.83372274143302183</v>
+        <v>0.75701079724426024</v>
       </c>
       <c r="G156">
-        <v>0.85189254818116089</v>
+        <v>0.76302676482202203</v>
       </c>
       <c r="H156">
-        <v>0.80803619434112894</v>
+        <v>0.7462064171301287</v>
       </c>
       <c r="I156">
-        <v>0.85949613188924812</v>
+        <v>0.76806442331664315</v>
       </c>
       <c r="J156">
-        <v>0.83376616311518836</v>
+        <v>0.75713542022338598</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
-        <v>54</v>
+        <v>155</v>
       </c>
       <c r="B157">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C157" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D157">
-        <v>0.83359293873312568</v>
+        <v>0.75493388582882748</v>
       </c>
       <c r="E157">
-        <v>0.82887838170297001</v>
+        <v>0.75258405548398888</v>
       </c>
       <c r="F157">
-        <v>0.83359293873312568</v>
+        <v>0.75493388582882748</v>
       </c>
       <c r="G157">
-        <v>0.85284415354498089</v>
+        <v>0.76006338292444053</v>
       </c>
       <c r="H157">
-        <v>0.80638267290767407</v>
+        <v>0.74569726754297339</v>
       </c>
       <c r="I157">
-        <v>0.86099367419870854</v>
+        <v>0.76443578499819753</v>
       </c>
       <c r="J157">
-        <v>0.83368817355319136</v>
+        <v>0.75506652627058557</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
-        <v>143</v>
+        <v>165</v>
       </c>
       <c r="B158">
         <v>10</v>
       </c>
       <c r="C158" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="D158">
-        <v>0.8335913891555915</v>
+        <v>0.75324557414051574</v>
       </c>
       <c r="E158">
-        <v>0.82923368777356665</v>
+        <v>0.75109561429801086</v>
       </c>
       <c r="F158">
-        <v>0.8335913891555915</v>
+        <v>0.75324557414051574</v>
       </c>
       <c r="G158">
-        <v>0.85132205895864066</v>
+        <v>0.75781989696235275</v>
       </c>
       <c r="H158">
-        <v>0.80854911944210683</v>
+        <v>0.74492828088300012</v>
       </c>
       <c r="I158">
-        <v>0.85879444207504108</v>
+        <v>0.7618884780250561</v>
       </c>
       <c r="J158">
-        <v>0.83367178075857384</v>
+        <v>0.75340837945402794</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
-        <v>242</v>
+        <v>160</v>
       </c>
       <c r="B159">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C159" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D159">
-        <v>0.83333557634075761</v>
+        <v>0.75324607947176037</v>
       </c>
       <c r="E159">
-        <v>0.82857428774329855</v>
+        <v>0.75130949422964566</v>
       </c>
       <c r="F159">
-        <v>0.83333557634075761</v>
+        <v>0.75324607947176037</v>
       </c>
       <c r="G159">
-        <v>0.85170162164440821</v>
+        <v>0.75746391486373132</v>
       </c>
       <c r="H159">
-        <v>0.8074246340298723</v>
+        <v>0.7456865121467402</v>
       </c>
       <c r="I159">
-        <v>0.85987495027004501</v>
+        <v>0.7610737675565199</v>
       </c>
       <c r="J159">
-        <v>0.83364979214995893</v>
+        <v>0.75338013985162999</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
-        <v>59</v>
+        <v>146</v>
       </c>
       <c r="B160">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C160" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D160">
-        <v>0.83346313603322952</v>
+        <v>0.49999713645628041</v>
       </c>
       <c r="E160">
-        <v>0.82881192765156342</v>
+        <v>0</v>
       </c>
       <c r="F160">
-        <v>0.83346313603322952</v>
+        <v>0.49999713645628041</v>
       </c>
       <c r="G160">
-        <v>0.85239711828283937</v>
+        <v>0</v>
       </c>
       <c r="H160">
-        <v>0.80663777494849032</v>
+        <v>0</v>
       </c>
       <c r="I160">
-        <v>0.86046513297249294</v>
+        <v>1</v>
       </c>
       <c r="J160">
-        <v>0.83355145396049179</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
-        <v>22</v>
+        <v>151</v>
       </c>
       <c r="B161">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C161" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D161">
-        <v>0.83346313603322952</v>
+        <v>0.49999713645628041</v>
       </c>
       <c r="E161">
-        <v>0.82881597311230726</v>
+        <v>0</v>
       </c>
       <c r="F161">
-        <v>0.83346313603322952</v>
+        <v>0.49999713645628041</v>
       </c>
       <c r="G161">
-        <v>0.85269659134551323</v>
+        <v>0</v>
       </c>
       <c r="H161">
-        <v>0.80638832005331418</v>
+        <v>0</v>
       </c>
       <c r="I161">
-        <v>0.8606431023159965</v>
+        <v>1</v>
       </c>
       <c r="J161">
-        <v>0.83351571118465539</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
-        <v>17</v>
+        <v>156</v>
       </c>
       <c r="B162">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C162" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D162">
-        <v>0.83346313603322952</v>
+        <v>0.49999713645628041</v>
       </c>
       <c r="E162">
-        <v>0.82877067966740126</v>
+        <v>0</v>
       </c>
       <c r="F162">
-        <v>0.83346313603322952</v>
+        <v>0.49999713645628041</v>
       </c>
       <c r="G162">
-        <v>0.85288372281109637</v>
+        <v>0</v>
       </c>
       <c r="H162">
-        <v>0.80612708703346048</v>
+        <v>0</v>
       </c>
       <c r="I162">
-        <v>0.86090110025201305</v>
+        <v>1</v>
       </c>
       <c r="J162">
-        <v>0.83351409364273676</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
-        <v>12</v>
+        <v>161</v>
       </c>
       <c r="B163">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C163" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D163">
-        <v>0.83333333333333337</v>
+        <v>0.49999713645628041</v>
       </c>
       <c r="E163">
-        <v>0.82861492995315478</v>
+        <v>0</v>
       </c>
       <c r="F163">
-        <v>0.83333333333333337</v>
+        <v>0.49999713645628041</v>
       </c>
       <c r="G163">
-        <v>0.85284179244904168</v>
+        <v>0</v>
       </c>
       <c r="H163">
-        <v>0.80586585401360677</v>
+        <v>0</v>
       </c>
       <c r="I163">
-        <v>0.86090110025201305</v>
+        <v>1</v>
       </c>
       <c r="J163">
-        <v>0.83338347713280991</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
-        <v>49</v>
+        <v>166</v>
       </c>
       <c r="B164">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C164" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="D164">
-        <v>0.83307372793354106</v>
+        <v>0.49999713645628041</v>
       </c>
       <c r="E164">
-        <v>0.82835536044578961</v>
+        <v>0</v>
       </c>
       <c r="F164">
-        <v>0.83307372793354106</v>
+        <v>0.49999713645628041</v>
       </c>
       <c r="G164">
-        <v>0.85228446538902403</v>
+        <v>0</v>
       </c>
       <c r="H164">
-        <v>0.8058802683914511</v>
+        <v>0</v>
       </c>
       <c r="I164">
-        <v>0.86044580536804649</v>
+        <v>1</v>
       </c>
       <c r="J164">
-        <v>0.83316303687974891</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
-        <v>237</v>
+        <v>209</v>
       </c>
       <c r="B165">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C165" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="D165">
-        <v>0.83281676872350441</v>
+        <v>0.93834594249532011</v>
       </c>
       <c r="E165">
-        <v>0.82808709693255955</v>
+        <v>0.93795572858290421</v>
       </c>
       <c r="F165">
-        <v>0.83281676872350441</v>
+        <v>0.93834594249532011</v>
       </c>
       <c r="G165">
-        <v>0.85095838603255669</v>
+        <v>0.94285772644647436</v>
       </c>
       <c r="H165">
-        <v>0.80718592384769994</v>
+        <v>0.93333922063292651</v>
       </c>
       <c r="I165">
-        <v>0.85908989190590235</v>
+        <v>0.94346659654487774</v>
       </c>
       <c r="J165">
-        <v>0.83313790787680131</v>
+        <v>0.93840290858890196</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
-        <v>96</v>
+        <v>204</v>
       </c>
       <c r="B166">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C166" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D166">
-        <v>0.83307372793354095</v>
+        <v>0.93717812130675204</v>
       </c>
       <c r="E166">
-        <v>0.8284096244483603</v>
+        <v>0.93690922590072656</v>
       </c>
       <c r="F166">
-        <v>0.83307372793354095</v>
+        <v>0.93717812130675204</v>
       </c>
       <c r="G166">
-        <v>0.851718933848163</v>
+        <v>0.93993554093442411</v>
       </c>
       <c r="H166">
-        <v>0.80674638121480613</v>
+        <v>0.93411729268508359</v>
       </c>
       <c r="I166">
-        <v>0.85952026379834967</v>
+        <v>0.94033546685802649</v>
       </c>
       <c r="J166">
-        <v>0.83313332250657779</v>
+        <v>0.93722637977155487</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
-        <v>7</v>
+        <v>199</v>
       </c>
       <c r="B167">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C167" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D167">
-        <v>0.83307372793354095</v>
+        <v>0.93588063206839145</v>
       </c>
       <c r="E167">
-        <v>0.82834719233601961</v>
+        <v>0.935625211830582</v>
       </c>
       <c r="F167">
-        <v>0.83307372793354095</v>
+        <v>0.93588063206839145</v>
       </c>
       <c r="G167">
-        <v>0.85256355093540781</v>
+        <v>0.93864987856483617</v>
       </c>
       <c r="H167">
-        <v>0.80560785607759022</v>
+        <v>0.9328997411612121</v>
       </c>
       <c r="I167">
-        <v>0.86063986723215935</v>
+        <v>0.93903756719856191</v>
       </c>
       <c r="J167">
-        <v>0.83312386165487473</v>
+        <v>0.93596865417988695</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
-        <v>2</v>
+        <v>194</v>
       </c>
       <c r="B168">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C168" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D168">
-        <v>0.83216510903426788</v>
+        <v>0.93380486495113058</v>
       </c>
       <c r="E168">
-        <v>0.82753005509281918</v>
+        <v>0.93341664043928751</v>
       </c>
       <c r="F168">
-        <v>0.83216510903426788</v>
+        <v>0.93380486495113058</v>
       </c>
       <c r="G168">
-        <v>0.85110275852226025</v>
+        <v>0.93771538552600542</v>
       </c>
       <c r="H168">
-        <v>0.80534015289006211</v>
+        <v>0.92945790410730333</v>
       </c>
       <c r="I168">
-        <v>0.85907893928071144</v>
+        <v>0.93826767828120239</v>
       </c>
       <c r="J168">
-        <v>0.83220954608538689</v>
+        <v>0.93386279119425275</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
-        <v>3</v>
+        <v>189</v>
       </c>
       <c r="B169">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C169" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D169">
-        <v>0.82892004153686405</v>
+        <v>0.92835233693636199</v>
       </c>
       <c r="E169">
-        <v>0.84367556309238168</v>
+        <v>0.92766734358194691</v>
       </c>
       <c r="F169">
-        <v>0.82892004153686405</v>
+        <v>0.92835233693636199</v>
       </c>
       <c r="G169">
-        <v>0.77704032812298007</v>
+        <v>0.9345879669350815</v>
       </c>
       <c r="H169">
-        <v>0.92323146054329996</v>
+        <v>0.92118851839158933</v>
       </c>
       <c r="I169">
-        <v>0.73480238490380478</v>
+        <v>0.93568700908884839</v>
       </c>
       <c r="J169">
-        <v>0.82901692272355232</v>
-      </c>
-    </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.9284377637402188</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>235</v>
       </c>
@@ -6009,7 +6013,7 @@
         <v>0.82218660813492117</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>282</v>
       </c>
@@ -6041,7 +6045,7 @@
         <v>0.82136969282362815</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>141</v>
       </c>
@@ -6073,7 +6077,7 @@
         <v>0.82123119180633686</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>0</v>
       </c>
@@ -6105,7 +6109,7 @@
         <v>0.82104769807609568</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>188</v>
       </c>
@@ -6137,7 +6141,7 @@
         <v>0.82074369643068434</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>94</v>
       </c>
@@ -6169,7 +6173,7 @@
         <v>0.82040568502753553</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>47</v>
       </c>
@@ -6203,1125 +6207,1125 @@
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
-        <v>4</v>
+        <v>211</v>
       </c>
       <c r="B177">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C177" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="D177">
-        <v>0.77401349948078924</v>
+        <v>0.86058932376359754</v>
       </c>
       <c r="E177">
-        <v>0.7694323702916066</v>
+        <v>0.86773536750595359</v>
       </c>
       <c r="F177">
-        <v>0.77401349948078924</v>
+        <v>0.86058932376359754</v>
       </c>
       <c r="G177">
-        <v>0.78558793334912735</v>
+        <v>0.82345094210197256</v>
       </c>
       <c r="H177">
-        <v>0.75422016686562432</v>
+        <v>0.91763175920311668</v>
       </c>
       <c r="I177">
-        <v>0.79395912795080092</v>
+        <v>0.80401025173302243</v>
       </c>
       <c r="J177">
-        <v>0.77408964740821262</v>
+        <v>0.86082100546806928</v>
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
-        <v>145</v>
+        <v>206</v>
       </c>
       <c r="B178">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C178" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D178">
-        <v>0.767394343658935</v>
+        <v>0.85877181442534134</v>
       </c>
       <c r="E178">
-        <v>0.76314429720326404</v>
+        <v>0.86623049080849479</v>
       </c>
       <c r="F178">
-        <v>0.767394343658935</v>
+        <v>0.85877181442534134</v>
       </c>
       <c r="G178">
-        <v>0.77745451232332174</v>
+        <v>0.82094748660335015</v>
       </c>
       <c r="H178">
-        <v>0.74983761596848597</v>
+        <v>0.91742456280301643</v>
       </c>
       <c r="I178">
-        <v>0.78526011063556111</v>
+        <v>0.80064184308393715</v>
       </c>
       <c r="J178">
-        <v>0.76754886330202354</v>
+        <v>0.85903320294347674</v>
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
-        <v>51</v>
+        <v>201</v>
       </c>
       <c r="B179">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C179" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D179">
-        <v>0.76622533748701982</v>
+        <v>0.85643455456733453</v>
       </c>
       <c r="E179">
-        <v>0.76190040867449271</v>
+        <v>0.86439116308170294</v>
       </c>
       <c r="F179">
-        <v>0.76622533748701982</v>
+        <v>0.85643455456733453</v>
       </c>
       <c r="G179">
-        <v>0.77624531085987569</v>
+        <v>0.81742192900473387</v>
       </c>
       <c r="H179">
-        <v>0.74826476333490521</v>
+        <v>0.91769840079323139</v>
       </c>
       <c r="I179">
-        <v>0.78428816073044327</v>
+        <v>0.79570495294228982</v>
       </c>
       <c r="J179">
-        <v>0.7662764620326743</v>
+        <v>0.85670167686776055</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
-        <v>9</v>
+        <v>196</v>
       </c>
       <c r="B180">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C180" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D180">
-        <v>0.7642782969885773</v>
+        <v>0.85396978330069606</v>
       </c>
       <c r="E180">
-        <v>0.76093031123491173</v>
+        <v>0.86258907375159344</v>
       </c>
       <c r="F180">
-        <v>0.7642782969885773</v>
+        <v>0.85396978330069606</v>
       </c>
       <c r="G180">
-        <v>0.77201799552994377</v>
+        <v>0.812861587732711</v>
       </c>
       <c r="H180">
-        <v>0.75029843648398153</v>
+        <v>0.919497360554137</v>
       </c>
       <c r="I180">
-        <v>0.77835955368783383</v>
+        <v>0.78908545415190612</v>
       </c>
       <c r="J180">
-        <v>0.76432899508590768</v>
+        <v>0.85429140735302156</v>
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
-        <v>98</v>
+        <v>191</v>
       </c>
       <c r="B181">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C181" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D181">
-        <v>0.76388888888888895</v>
+        <v>0.83813491515773664</v>
       </c>
       <c r="E181">
-        <v>0.75987666814751986</v>
+        <v>0.85015123221994371</v>
       </c>
       <c r="F181">
-        <v>0.76388888888888895</v>
+        <v>0.83813491515773664</v>
       </c>
       <c r="G181">
-        <v>0.77275331647940304</v>
+        <v>0.79062676643670349</v>
       </c>
       <c r="H181">
-        <v>0.74786681121203247</v>
+        <v>0.92027525111487929</v>
       </c>
       <c r="I181">
-        <v>0.77994414324372929</v>
+        <v>0.75668536943379161</v>
       </c>
       <c r="J181">
-        <v>0.76390547722788082</v>
+        <v>0.83848031027433556</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
-        <v>286</v>
+        <v>205</v>
       </c>
       <c r="B182">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C182" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D182">
-        <v>0.76350397175639884</v>
+        <v>0.83424298660294516</v>
       </c>
       <c r="E182">
-        <v>0.759533851507595</v>
+        <v>0.82963269358248137</v>
       </c>
       <c r="F182">
-        <v>0.76350397175639884</v>
+        <v>0.83424298660294516</v>
       </c>
       <c r="G182">
-        <v>0.77174561228615246</v>
+        <v>0.85270549005569896</v>
       </c>
       <c r="H182">
-        <v>0.74908085217258991</v>
+        <v>0.80834516144131607</v>
       </c>
       <c r="I182">
-        <v>0.77835922151801273</v>
+        <v>0.86032529352334086</v>
       </c>
       <c r="J182">
-        <v>0.76372003684530132</v>
+        <v>0.83433522748232847</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
-        <v>239</v>
+        <v>200</v>
       </c>
       <c r="B183">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C183" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D183">
-        <v>0.76246181279860037</v>
+        <v>0.83411358813329761</v>
       </c>
       <c r="E183">
-        <v>0.75832583004826259</v>
+        <v>0.82947012604480974</v>
       </c>
       <c r="F183">
-        <v>0.76246181279860037</v>
+        <v>0.83411358813329761</v>
       </c>
       <c r="G183">
-        <v>0.77061178055793644</v>
+        <v>0.85267380832229434</v>
       </c>
       <c r="H183">
-        <v>0.74735319822286939</v>
+        <v>0.80809109640066568</v>
       </c>
       <c r="I183">
-        <v>0.77753679684083676</v>
+        <v>0.86034056722813068</v>
       </c>
       <c r="J183">
-        <v>0.7624449975318528</v>
+        <v>0.83421583181439818</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B184">
         <v>16</v>
       </c>
       <c r="C184" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D184">
-        <v>0.76246430758878903</v>
+        <v>0.83411358813329761</v>
       </c>
       <c r="E184">
-        <v>0.75810970914842413</v>
+        <v>0.82943612583920334</v>
       </c>
       <c r="F184">
-        <v>0.76246430758878903</v>
+        <v>0.83411358813329761</v>
       </c>
       <c r="G184">
-        <v>0.77177465876305862</v>
+        <v>0.85290467728067432</v>
       </c>
       <c r="H184">
-        <v>0.74583248740297248</v>
+        <v>0.80783067973399902</v>
       </c>
       <c r="I184">
-        <v>0.77900056660687322</v>
+        <v>0.86057920226361873</v>
       </c>
       <c r="J184">
-        <v>0.76241652700492268</v>
+        <v>0.83420494099880893</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
-        <v>14</v>
+        <v>210</v>
       </c>
       <c r="B185">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C185" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D185">
-        <v>0.762331256490135</v>
+        <v>0.83411331855315263</v>
       </c>
       <c r="E185">
-        <v>0.75936846590956197</v>
+        <v>0.82952741200524871</v>
       </c>
       <c r="F185">
-        <v>0.762331256490135</v>
+        <v>0.83411331855315263</v>
       </c>
       <c r="G185">
-        <v>0.7690749700272943</v>
+        <v>0.85248145799107522</v>
       </c>
       <c r="H185">
-        <v>0.75003396838029057</v>
+        <v>0.80834516144131607</v>
       </c>
       <c r="I185">
-        <v>0.77472493699674216</v>
+        <v>0.86004857700106385</v>
       </c>
       <c r="J185">
-        <v>0.76237945268851648</v>
+        <v>0.83419686922118996</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
-        <v>19</v>
+        <v>190</v>
       </c>
       <c r="B186">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C186" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D186">
-        <v>0.76025441329179655</v>
+        <v>0.83385425203371266</v>
       </c>
       <c r="E186">
-        <v>0.75771124429372261</v>
+        <v>0.82904292432824889</v>
       </c>
       <c r="F186">
-        <v>0.76025441329179655</v>
+        <v>0.83385425203371266</v>
       </c>
       <c r="G186">
-        <v>0.76594734603348225</v>
+        <v>0.85301019203063644</v>
       </c>
       <c r="H186">
-        <v>0.74977273536043687</v>
+        <v>0.80703316566992267</v>
       </c>
       <c r="I186">
-        <v>0.77082908728579702</v>
+        <v>0.86088919599710045</v>
       </c>
       <c r="J186">
-        <v>0.76030091132311695</v>
+        <v>0.83396118083351167</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
-        <v>24</v>
+        <v>192</v>
       </c>
       <c r="B187">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C187" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="D187">
-        <v>0.75843717549325018</v>
+        <v>0.76246430758878903</v>
       </c>
       <c r="E187">
-        <v>0.75613066329037126</v>
+        <v>0.75810970914842413</v>
       </c>
       <c r="F187">
-        <v>0.75843717549325018</v>
+        <v>0.76246430758878903</v>
       </c>
       <c r="G187">
-        <v>0.76352222399636949</v>
+        <v>0.77177465876305862</v>
       </c>
       <c r="H187">
-        <v>0.74898903630087577</v>
+        <v>0.74583248740297248</v>
       </c>
       <c r="I187">
-        <v>0.76797169948659216</v>
+        <v>0.77900056660687322</v>
       </c>
       <c r="J187">
-        <v>0.75848036789373396</v>
+        <v>0.76241652700492268</v>
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
-        <v>150</v>
+        <v>197</v>
       </c>
       <c r="B188">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C188" t="s">
         <v>18</v>
       </c>
       <c r="D188">
-        <v>0.75701079724426024</v>
+        <v>0.75493655161704942</v>
       </c>
       <c r="E188">
-        <v>0.75429593884208856</v>
+        <v>0.75212518514746207</v>
       </c>
       <c r="F188">
-        <v>0.75701079724426024</v>
+        <v>0.75493655161704942</v>
       </c>
       <c r="G188">
-        <v>0.76302676482202203</v>
+        <v>0.76044579631863374</v>
       </c>
       <c r="H188">
-        <v>0.7462064171301287</v>
+        <v>0.7449501095359381</v>
       </c>
       <c r="I188">
-        <v>0.76806442331664315</v>
+        <v>0.76512982724907053</v>
       </c>
       <c r="J188">
-        <v>0.75713542022338598</v>
+        <v>0.7550399683925042</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
-        <v>103</v>
+        <v>202</v>
       </c>
       <c r="B189">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C189" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D189">
-        <v>0.75610072689511953</v>
+        <v>0.75376873042848125</v>
       </c>
       <c r="E189">
-        <v>0.75323855974245801</v>
+        <v>0.751185565352531</v>
       </c>
       <c r="F189">
-        <v>0.75610072689511953</v>
+        <v>0.75376873042848125</v>
       </c>
       <c r="G189">
-        <v>0.76186403149661108</v>
+        <v>0.75874392807858548</v>
       </c>
       <c r="H189">
-        <v>0.74529042548830848</v>
+        <v>0.74471733892014802</v>
       </c>
       <c r="I189">
-        <v>0.76714695286823498</v>
+        <v>0.76305617625379374</v>
       </c>
       <c r="J189">
-        <v>0.75621868917827162</v>
+        <v>0.75388675758697066</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
-        <v>155</v>
+        <v>207</v>
       </c>
       <c r="B190">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C190" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D190">
-        <v>0.75493388582882748</v>
+        <v>0.75221055718981011</v>
       </c>
       <c r="E190">
-        <v>0.75258405548398888</v>
+        <v>0.7500638781127833</v>
       </c>
       <c r="F190">
-        <v>0.75493388582882748</v>
+        <v>0.75221055718981011</v>
       </c>
       <c r="G190">
-        <v>0.76006338292444053</v>
+        <v>0.75614925073150974</v>
       </c>
       <c r="H190">
-        <v>0.74569726754297339</v>
+        <v>0.74497984801767347</v>
       </c>
       <c r="I190">
-        <v>0.76443578499819753</v>
+        <v>0.75968684036928835</v>
       </c>
       <c r="J190">
-        <v>0.75506652627058557</v>
+        <v>0.75233334419348075</v>
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="B191">
         <v>16</v>
       </c>
       <c r="C191" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D191">
-        <v>0.75493655161704942</v>
+        <v>0.75039331743169901</v>
       </c>
       <c r="E191">
-        <v>0.75212518514746207</v>
+        <v>0.74882558041574443</v>
       </c>
       <c r="F191">
-        <v>0.75493655161704942</v>
+        <v>0.75039331743169901</v>
       </c>
       <c r="G191">
-        <v>0.76044579631863374</v>
+        <v>0.75312332339459043</v>
       </c>
       <c r="H191">
-        <v>0.7449501095359381</v>
+        <v>0.74550166165090015</v>
       </c>
       <c r="I191">
-        <v>0.76512982724907053</v>
+        <v>0.75553796350920543</v>
       </c>
       <c r="J191">
-        <v>0.7550399683925042</v>
+        <v>0.75051981258005263</v>
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
-        <v>291</v>
+        <v>193</v>
       </c>
       <c r="B192">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C192" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D192">
-        <v>0.75428655486907914</v>
+        <v>0.49999703461840389</v>
       </c>
       <c r="E192">
-        <v>0.75149727437971026</v>
+        <v>0</v>
       </c>
       <c r="F192">
-        <v>0.75428655486907914</v>
+        <v>0.49999703461840389</v>
       </c>
       <c r="G192">
-        <v>0.75939368922964445</v>
+        <v>0</v>
       </c>
       <c r="H192">
-        <v>0.7453736152813546</v>
+        <v>0</v>
       </c>
       <c r="I192">
-        <v>0.76408091904985398</v>
+        <v>1</v>
       </c>
       <c r="J192">
-        <v>0.75472726716560445</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
-        <v>296</v>
+        <v>198</v>
       </c>
       <c r="B193">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C193" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D193">
-        <v>0.75376833522464592</v>
+        <v>0.49999703461840389</v>
       </c>
       <c r="E193">
-        <v>0.7508853804550536</v>
+        <v>0</v>
       </c>
       <c r="F193">
-        <v>0.75376833522464592</v>
+        <v>0.49999703461840389</v>
       </c>
       <c r="G193">
-        <v>0.75918895240240858</v>
+        <v>0</v>
       </c>
       <c r="H193">
-        <v>0.74433506217106038</v>
+        <v>0</v>
       </c>
       <c r="I193">
-        <v>0.7640951368562654</v>
+        <v>1</v>
       </c>
       <c r="J193">
-        <v>0.75421509951366295</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
-        <v>244</v>
+        <v>203</v>
       </c>
       <c r="B194">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C194" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D194">
-        <v>0.75389677679833123</v>
+        <v>0.49999703461840389</v>
       </c>
       <c r="E194">
-        <v>0.7511625278797065</v>
+        <v>0</v>
       </c>
       <c r="F194">
-        <v>0.75389677679833123</v>
+        <v>0.49999703461840389</v>
       </c>
       <c r="G194">
-        <v>0.75877833722534005</v>
+        <v>0</v>
       </c>
       <c r="H194">
-        <v>0.7445670985460856</v>
+        <v>0</v>
       </c>
       <c r="I194">
-        <v>0.76335776239787911</v>
+        <v>1</v>
       </c>
       <c r="J194">
-        <v>0.7539624304719823</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="B195">
         <v>16</v>
       </c>
       <c r="C195" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D195">
-        <v>0.75376873042848125</v>
+        <v>0.49999703461840389</v>
       </c>
       <c r="E195">
-        <v>0.751185565352531</v>
+        <v>0</v>
       </c>
       <c r="F195">
-        <v>0.75376873042848125</v>
+        <v>0.49999703461840389</v>
       </c>
       <c r="G195">
-        <v>0.75874392807858548</v>
+        <v>0</v>
       </c>
       <c r="H195">
-        <v>0.74471733892014802</v>
+        <v>0</v>
       </c>
       <c r="I195">
-        <v>0.76305617625379374</v>
+        <v>1</v>
       </c>
       <c r="J195">
-        <v>0.75388675758697066</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
-        <v>108</v>
+        <v>213</v>
       </c>
       <c r="B196">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C196" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="D196">
-        <v>0.75350467289719625</v>
+        <v>0.49999703461840389</v>
       </c>
       <c r="E196">
-        <v>0.75137379667509818</v>
+        <v>0</v>
       </c>
       <c r="F196">
-        <v>0.75350467289719625</v>
+        <v>0.49999703461840389</v>
       </c>
       <c r="G196">
-        <v>0.75780876014489329</v>
+        <v>0</v>
       </c>
       <c r="H196">
-        <v>0.74561066043920654</v>
+        <v>0</v>
       </c>
       <c r="I196">
-        <v>0.76167738445143818</v>
+        <v>1</v>
       </c>
       <c r="J196">
-        <v>0.75364402244532225</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
-        <v>165</v>
+        <v>256</v>
       </c>
       <c r="B197">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C197" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D197">
-        <v>0.75324557414051574</v>
+        <v>0.93860440078056673</v>
       </c>
       <c r="E197">
-        <v>0.75109561429801086</v>
+        <v>0.93812072301753668</v>
       </c>
       <c r="F197">
-        <v>0.75324557414051574</v>
+        <v>0.93860440078056673</v>
       </c>
       <c r="G197">
-        <v>0.75781989696235275</v>
+        <v>0.94297884469902338</v>
       </c>
       <c r="H197">
-        <v>0.74492828088300012</v>
+        <v>0.93357398112558898</v>
       </c>
       <c r="I197">
-        <v>0.7618884780250561</v>
+        <v>0.94383164325309499</v>
       </c>
       <c r="J197">
-        <v>0.75340837945402794</v>
+        <v>0.93870281218934171</v>
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
-        <v>160</v>
+        <v>251</v>
       </c>
       <c r="B198">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C198" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D198">
-        <v>0.75324607947176037</v>
+        <v>0.9374359060628491</v>
       </c>
       <c r="E198">
-        <v>0.75130949422964566</v>
+        <v>0.93705199028876685</v>
       </c>
       <c r="F198">
-        <v>0.75324607947176037</v>
+        <v>0.9374359060628491</v>
       </c>
       <c r="G198">
-        <v>0.75746391486373132</v>
+        <v>0.94054996311944561</v>
       </c>
       <c r="H198">
-        <v>0.7456865121467402</v>
+        <v>0.93384607687468413</v>
       </c>
       <c r="I198">
-        <v>0.7610737675565199</v>
+        <v>0.94120796001712947</v>
       </c>
       <c r="J198">
-        <v>0.75338013985162999</v>
+        <v>0.93752701844590658</v>
       </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
-        <v>301</v>
+        <v>246</v>
       </c>
       <c r="B199">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C199" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D199">
-        <v>0.75233976379607459</v>
+        <v>0.93613922347082956</v>
       </c>
       <c r="E199">
-        <v>0.75001775557069417</v>
+        <v>0.93580872078814181</v>
       </c>
       <c r="F199">
-        <v>0.75233976379607459</v>
+        <v>0.93613922347082956</v>
       </c>
       <c r="G199">
-        <v>0.75641693866634285</v>
+        <v>0.93862138777995274</v>
       </c>
       <c r="H199">
-        <v>0.74535485105911803</v>
+        <v>0.93336292058619852</v>
       </c>
       <c r="I199">
-        <v>0.76024533857862242</v>
+        <v>0.93909808005967044</v>
       </c>
       <c r="J199">
-        <v>0.75280009481887022</v>
+        <v>0.93623050032293453</v>
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="B200">
         <v>20</v>
       </c>
       <c r="C200" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D200">
-        <v>0.75259773904851635</v>
+        <v>0.93393311351860575</v>
       </c>
       <c r="E200">
-        <v>0.75011115287894214</v>
+        <v>0.93350842735516992</v>
       </c>
       <c r="F200">
-        <v>0.75259773904851635</v>
+        <v>0.93393311351860575</v>
       </c>
       <c r="G200">
-        <v>0.75693161264210507</v>
+        <v>0.93792263797286135</v>
       </c>
       <c r="H200">
-        <v>0.74429658680896593</v>
+        <v>0.92947614747745677</v>
       </c>
       <c r="I200">
-        <v>0.76105916904661863</v>
+        <v>0.9385273379441319</v>
       </c>
       <c r="J200">
-        <v>0.75267787792779228</v>
+        <v>0.9340017427107945</v>
       </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
-        <v>56</v>
+        <v>236</v>
       </c>
       <c r="B201">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C201" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D201">
-        <v>0.75246625129802691</v>
+        <v>0.92913128322454741</v>
       </c>
       <c r="E201">
-        <v>0.74938672142252627</v>
+        <v>0.92848194375644577</v>
       </c>
       <c r="F201">
-        <v>0.75246625129802691</v>
+        <v>0.92913128322454741</v>
       </c>
       <c r="G201">
-        <v>0.75884505287406523</v>
+        <v>0.93471244359659678</v>
       </c>
       <c r="H201">
-        <v>0.74038349730973019</v>
+        <v>0.92272222926687708</v>
       </c>
       <c r="I201">
-        <v>0.7646735930614128</v>
+        <v>0.93565482827557245</v>
       </c>
       <c r="J201">
-        <v>0.75252854518557144</v>
+        <v>0.92918852877122471</v>
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
-        <v>207</v>
+        <v>258</v>
       </c>
       <c r="B202">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C202" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D202">
-        <v>0.75221055718981011</v>
+        <v>0.86072236054101336</v>
       </c>
       <c r="E202">
-        <v>0.7500638781127833</v>
+        <v>0.8679857472867194</v>
       </c>
       <c r="F202">
-        <v>0.75221055718981011</v>
+        <v>0.86072236054101336</v>
       </c>
       <c r="G202">
-        <v>0.75614925073150974</v>
+        <v>0.8241775132071899</v>
       </c>
       <c r="H202">
-        <v>0.74497984801767347</v>
+        <v>0.91746797255079215</v>
       </c>
       <c r="I202">
-        <v>0.75968684036928835</v>
+        <v>0.80466969809113265</v>
       </c>
       <c r="J202">
-        <v>0.75233334419348075</v>
+        <v>0.86106883532096234</v>
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
-        <v>306</v>
+        <v>253</v>
       </c>
       <c r="B203">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C203" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D203">
-        <v>0.75143235405371334</v>
+        <v>0.85929479846578283</v>
       </c>
       <c r="E203">
-        <v>0.74920969999157871</v>
+        <v>0.86684459468233366</v>
       </c>
       <c r="F203">
-        <v>0.75143235405371334</v>
+        <v>0.85929479846578283</v>
       </c>
       <c r="G203">
-        <v>0.75534188114229384</v>
+        <v>0.8222118670325026</v>
       </c>
       <c r="H203">
-        <v>0.74487355783324072</v>
+        <v>0.91748802400208052</v>
       </c>
       <c r="I203">
-        <v>0.75898461740871492</v>
+        <v>0.80190094357770081</v>
       </c>
       <c r="J203">
-        <v>0.75192908762097777</v>
+        <v>0.85969448378989066</v>
       </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
-        <v>113</v>
+        <v>248</v>
       </c>
       <c r="B204">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C204" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D204">
-        <v>0.75155763239875384</v>
+        <v>0.85656887154296457</v>
       </c>
       <c r="E204">
-        <v>0.74989923700854655</v>
+        <v>0.86461678888032156</v>
       </c>
       <c r="F204">
-        <v>0.75155763239875384</v>
+        <v>0.85656887154296457</v>
       </c>
       <c r="G204">
-        <v>0.75485632744333842</v>
+        <v>0.81821624312466223</v>
       </c>
       <c r="H204">
-        <v>0.74561250922801381</v>
+        <v>0.91748502979021951</v>
       </c>
       <c r="I204">
-        <v>0.75779757662992908</v>
+        <v>0.79649008674315414</v>
       </c>
       <c r="J204">
-        <v>0.75170504292897145</v>
+        <v>0.85698755826668671</v>
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
-        <v>66</v>
+        <v>243</v>
       </c>
       <c r="B205">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C205" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D205">
-        <v>0.75103842159916923</v>
+        <v>0.85371273803916292</v>
       </c>
       <c r="E205">
-        <v>0.74888501424117371</v>
+        <v>0.86253479936252098</v>
       </c>
       <c r="F205">
-        <v>0.75103842159916923</v>
+        <v>0.85371273803916292</v>
       </c>
       <c r="G205">
-        <v>0.75554379167197805</v>
+        <v>0.81328346011381591</v>
       </c>
       <c r="H205">
-        <v>0.74253631746190685</v>
+        <v>0.91907110363466271</v>
       </c>
       <c r="I205">
-        <v>0.75966542261186576</v>
+        <v>0.78914060125307506</v>
       </c>
       <c r="J205">
-        <v>0.7511008700368863</v>
+        <v>0.85410585244386872</v>
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
-        <v>61</v>
+        <v>238</v>
       </c>
       <c r="B206">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C206" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D206">
-        <v>0.75064901349948077</v>
+        <v>0.83761624385976707</v>
       </c>
       <c r="E206">
-        <v>0.74834671484008952</v>
+        <v>0.84985941716446312</v>
       </c>
       <c r="F206">
-        <v>0.75064901349948077</v>
+        <v>0.83761624385976707</v>
       </c>
       <c r="G206">
-        <v>0.75535472009398297</v>
+        <v>0.79019964951254784</v>
       </c>
       <c r="H206">
-        <v>0.74169700070530031</v>
+        <v>0.92031742512417014</v>
       </c>
       <c r="I206">
-        <v>0.75975080578477983</v>
+        <v>0.75570671036660675</v>
       </c>
       <c r="J206">
-        <v>0.75072390324504001</v>
+        <v>0.83801206774538861</v>
       </c>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
-        <v>212</v>
+        <v>257</v>
       </c>
       <c r="B207">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C207" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D207">
-        <v>0.75039331743169901</v>
+        <v>0.83385505686023809</v>
       </c>
       <c r="E207">
-        <v>0.74882558041574443</v>
+        <v>0.8291060192069033</v>
       </c>
       <c r="F207">
-        <v>0.75039331743169901</v>
+        <v>0.83385505686023809</v>
       </c>
       <c r="G207">
-        <v>0.75312332339459043</v>
+        <v>0.85224335032293763</v>
       </c>
       <c r="H207">
-        <v>0.74550166165090015</v>
+        <v>0.80793654814351468</v>
       </c>
       <c r="I207">
-        <v>0.75553796350920543</v>
+        <v>0.8604244671782576</v>
       </c>
       <c r="J207">
-        <v>0.75051981258005263</v>
+        <v>0.83418050766088625</v>
       </c>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
-        <v>118</v>
+        <v>252</v>
       </c>
       <c r="B208">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C208" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D208">
-        <v>0.75025960539979231</v>
+        <v>0.833725186730368</v>
       </c>
       <c r="E208">
-        <v>0.7488690258062124</v>
+        <v>0.82899734287100446</v>
       </c>
       <c r="F208">
-        <v>0.75025960539979231</v>
+        <v>0.833725186730368</v>
       </c>
       <c r="G208">
-        <v>0.75304472590673532</v>
+        <v>0.85200201707055467</v>
       </c>
       <c r="H208">
-        <v>0.74535895953227338</v>
+        <v>0.80793654814351468</v>
       </c>
       <c r="I208">
-        <v>0.75543684089022012</v>
+        <v>0.86015272804782283</v>
       </c>
       <c r="J208">
-        <v>0.75039790021124686</v>
+        <v>0.83404463809566887</v>
       </c>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="B209">
         <v>20</v>
       </c>
       <c r="C209" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D209">
-        <v>0.75013155238543849</v>
+        <v>0.8334654464706277</v>
       </c>
       <c r="E209">
-        <v>0.74823350462537497</v>
+        <v>0.82868098617135766</v>
       </c>
       <c r="F209">
-        <v>0.75013155238543849</v>
+        <v>0.8334654464706277</v>
       </c>
       <c r="G209">
-        <v>0.7529777673770276</v>
+        <v>0.85192435032979108</v>
       </c>
       <c r="H209">
-        <v>0.74434039101018945</v>
+        <v>0.8074246340298723</v>
       </c>
       <c r="I209">
-        <v>0.75597868591978945</v>
+        <v>0.86015272804782283</v>
       </c>
       <c r="J209">
-        <v>0.75015953846498951</v>
+        <v>0.83378868103884773</v>
       </c>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="B210">
         <v>20</v>
       </c>
       <c r="C210" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D210">
-        <v>0.7494811923827468</v>
+        <v>0.83333557634075761</v>
       </c>
       <c r="E210">
-        <v>0.74755273036489778</v>
+        <v>0.82857428774329855</v>
       </c>
       <c r="F210">
-        <v>0.7494811923827468</v>
+        <v>0.83333557634075761</v>
       </c>
       <c r="G210">
-        <v>0.75248475993889985</v>
+        <v>0.85170162164440821</v>
       </c>
       <c r="H210">
-        <v>0.7435382701937977</v>
+        <v>0.8074246340298723</v>
       </c>
       <c r="I210">
-        <v>0.75562523005659288</v>
+        <v>0.85987495027004501</v>
       </c>
       <c r="J210">
-        <v>0.74958175012519523</v>
+        <v>0.83364979214995893</v>
       </c>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
-        <v>71</v>
+        <v>237</v>
       </c>
       <c r="B211">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C211" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="D211">
-        <v>0.74740394600207682</v>
+        <v>0.83281676872350441</v>
       </c>
       <c r="E211">
-        <v>0.74571561572019252</v>
+        <v>0.82808709693255955</v>
       </c>
       <c r="F211">
-        <v>0.74740394600207682</v>
+        <v>0.83281676872350441</v>
       </c>
       <c r="G211">
-        <v>0.75080137585986162</v>
+        <v>0.85095838603255669</v>
       </c>
       <c r="H211">
-        <v>0.74094053326044351</v>
+        <v>0.80718592384769994</v>
       </c>
       <c r="I211">
-        <v>0.75405998052820133</v>
+        <v>0.85908989190590235</v>
       </c>
       <c r="J211">
-        <v>0.74750025689432231</v>
-      </c>
-    </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.83313790787680131</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>82</v>
       </c>
@@ -7353,7 +7357,7 @@
         <v>0.60742022840387411</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>35</v>
       </c>
@@ -7385,7 +7389,7 @@
         <v>0.60734533872945318</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>176</v>
       </c>
@@ -7417,7 +7421,7 @@
         <v>0.60716189628846295</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>270</v>
       </c>
@@ -7449,7 +7453,7 @@
         <v>0.60704798336652943</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>129</v>
       </c>
@@ -7481,7 +7485,7 @@
         <v>0.60704692865056686</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>223</v>
       </c>
@@ -7513,7 +7517,7 @@
         <v>0.60691437707767359</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>317</v>
       </c>
@@ -7545,7 +7549,7 @@
         <v>0.60684909467289305</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>93</v>
       </c>
@@ -7577,7 +7581,7 @@
         <v>0.55212619936279206</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>140</v>
       </c>
@@ -7609,7 +7613,7 @@
         <v>0.55205744274422475</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>281</v>
       </c>
@@ -7641,7 +7645,7 @@
         <v>0.55189384584995071</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>234</v>
       </c>
@@ -7673,7 +7677,7 @@
         <v>0.55178836399120779</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>187</v>
       </c>
@@ -7705,7 +7709,7 @@
         <v>0.55170808696170537</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>46</v>
       </c>
@@ -7737,7 +7741,7 @@
         <v>0.55163274681263363</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>328</v>
       </c>
@@ -7769,7 +7773,7 @@
         <v>0.55152432962896603</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>272</v>
       </c>
@@ -7801,7 +7805,7 @@
         <v>0.54344121760299946</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>131</v>
       </c>
@@ -7833,7 +7837,7 @@
         <v>0.5433230587255814</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>84</v>
       </c>
@@ -7865,7 +7869,7 @@
         <v>0.54328798427216363</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>225</v>
       </c>
@@ -7897,7 +7901,7 @@
         <v>0.54322837988500883</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>178</v>
       </c>
@@ -7929,7 +7933,7 @@
         <v>0.54316754025153513</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>37</v>
       </c>
@@ -7961,7 +7965,7 @@
         <v>0.54310910967257708</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>319</v>
       </c>
@@ -7993,7 +7997,7 @@
         <v>0.54259085654660599</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>88</v>
       </c>
@@ -8025,7 +8029,7 @@
         <v>0.52264994455084668</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>41</v>
       </c>
@@ -8057,7 +8061,7 @@
         <v>0.5225784588707616</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>182</v>
       </c>
@@ -8089,7 +8093,7 @@
         <v>0.52253842252874649</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>229</v>
       </c>
@@ -8121,7 +8125,7 @@
         <v>0.52253303723311373</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>276</v>
       </c>
@@ -8153,7 +8157,7 @@
         <v>0.52246352222781067</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>323</v>
       </c>
@@ -8185,7 +8189,7 @@
         <v>0.52238455123635574</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>135</v>
       </c>
@@ -8219,165 +8223,165 @@
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
-        <v>5</v>
+        <v>239</v>
       </c>
       <c r="B240">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C240" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D240">
-        <v>0.5</v>
+        <v>0.76246181279860037</v>
       </c>
       <c r="E240">
-        <v>0</v>
+        <v>0.75832583004826259</v>
       </c>
       <c r="F240">
-        <v>0.5</v>
+        <v>0.76246181279860037</v>
       </c>
       <c r="G240">
-        <v>0</v>
+        <v>0.77061178055793644</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>0.74735319822286939</v>
       </c>
       <c r="I240">
-        <v>1</v>
+        <v>0.77753679684083676</v>
       </c>
       <c r="J240">
-        <v>0.5</v>
+        <v>0.7624449975318528</v>
       </c>
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
-        <v>10</v>
+        <v>244</v>
       </c>
       <c r="B241">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C241" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D241">
-        <v>0.5</v>
+        <v>0.75389677679833123</v>
       </c>
       <c r="E241">
-        <v>0</v>
+        <v>0.7511625278797065</v>
       </c>
       <c r="F241">
-        <v>0.5</v>
+        <v>0.75389677679833123</v>
       </c>
       <c r="G241">
-        <v>0</v>
+        <v>0.75877833722534005</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>0.7445670985460856</v>
       </c>
       <c r="I241">
-        <v>1</v>
+        <v>0.76335776239787911</v>
       </c>
       <c r="J241">
-        <v>0.5</v>
+        <v>0.7539624304719823</v>
       </c>
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
-        <v>15</v>
+        <v>249</v>
       </c>
       <c r="B242">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C242" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D242">
-        <v>0.5</v>
+        <v>0.75259773904851635</v>
       </c>
       <c r="E242">
-        <v>0</v>
+        <v>0.75011115287894214</v>
       </c>
       <c r="F242">
-        <v>0.5</v>
+        <v>0.75259773904851635</v>
       </c>
       <c r="G242">
-        <v>0</v>
+        <v>0.75693161264210507</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>0.74429658680896593</v>
       </c>
       <c r="I242">
-        <v>1</v>
+        <v>0.76105916904661863</v>
       </c>
       <c r="J242">
-        <v>0.5</v>
+        <v>0.75267787792779228</v>
       </c>
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
+        <v>259</v>
+      </c>
+      <c r="B243">
         <v>20</v>
       </c>
-      <c r="B243">
-        <v>2</v>
-      </c>
       <c r="C243" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D243">
-        <v>0.5</v>
+        <v>0.75013155238543849</v>
       </c>
       <c r="E243">
-        <v>0</v>
+        <v>0.74823350462537497</v>
       </c>
       <c r="F243">
-        <v>0.5</v>
+        <v>0.75013155238543849</v>
       </c>
       <c r="G243">
-        <v>0</v>
+        <v>0.7529777673770276</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>0.74434039101018945</v>
       </c>
       <c r="I243">
-        <v>1</v>
+        <v>0.75597868591978945</v>
       </c>
       <c r="J243">
-        <v>0.5</v>
+        <v>0.75015953846498951</v>
       </c>
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
-        <v>25</v>
+        <v>254</v>
       </c>
       <c r="B244">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C244" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D244">
-        <v>0.5</v>
+        <v>0.7494811923827468</v>
       </c>
       <c r="E244">
-        <v>0</v>
+        <v>0.74755273036489778</v>
       </c>
       <c r="F244">
-        <v>0.5</v>
+        <v>0.7494811923827468</v>
       </c>
       <c r="G244">
-        <v>0</v>
+        <v>0.75248475993889985</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>0.7435382701937977</v>
       </c>
       <c r="I244">
-        <v>1</v>
+        <v>0.75562523005659288</v>
       </c>
       <c r="J244">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.74958175012519523</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>36</v>
       </c>
@@ -8409,7 +8413,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>38</v>
       </c>
@@ -8441,7 +8445,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>39</v>
       </c>
@@ -8473,7 +8477,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>40</v>
       </c>
@@ -8505,7 +8509,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>42</v>
       </c>
@@ -8537,7 +8541,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>43</v>
       </c>
@@ -8569,7 +8573,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>44</v>
       </c>
@@ -8603,22 +8607,22 @@
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
-        <v>52</v>
+        <v>240</v>
       </c>
       <c r="B252">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C252" t="s">
         <v>14</v>
       </c>
       <c r="D252">
-        <v>0.5</v>
+        <v>0.50000201870668182</v>
       </c>
       <c r="E252">
         <v>0</v>
       </c>
       <c r="F252">
-        <v>0.5</v>
+        <v>0.50000201870668182</v>
       </c>
       <c r="G252">
         <v>0</v>
@@ -8635,22 +8639,22 @@
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
-        <v>57</v>
+        <v>245</v>
       </c>
       <c r="B253">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C253" t="s">
         <v>19</v>
       </c>
       <c r="D253">
-        <v>0.5</v>
+        <v>0.50000201870668182</v>
       </c>
       <c r="E253">
         <v>0</v>
       </c>
       <c r="F253">
-        <v>0.5</v>
+        <v>0.50000201870668182</v>
       </c>
       <c r="G253">
         <v>0</v>
@@ -8667,22 +8671,22 @@
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
-        <v>62</v>
+        <v>250</v>
       </c>
       <c r="B254">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C254" t="s">
         <v>24</v>
       </c>
       <c r="D254">
-        <v>0.5</v>
+        <v>0.50000201870668182</v>
       </c>
       <c r="E254">
         <v>0</v>
       </c>
       <c r="F254">
-        <v>0.5</v>
+        <v>0.50000201870668182</v>
       </c>
       <c r="G254">
         <v>0</v>
@@ -8699,22 +8703,22 @@
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
-        <v>67</v>
+        <v>255</v>
       </c>
       <c r="B255">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C255" t="s">
         <v>29</v>
       </c>
       <c r="D255">
-        <v>0.5</v>
+        <v>0.50000201870668182</v>
       </c>
       <c r="E255">
         <v>0</v>
       </c>
       <c r="F255">
-        <v>0.5</v>
+        <v>0.50000201870668182</v>
       </c>
       <c r="G255">
         <v>0</v>
@@ -8731,22 +8735,22 @@
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
-        <v>72</v>
+        <v>260</v>
       </c>
       <c r="B256">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C256" t="s">
         <v>34</v>
       </c>
       <c r="D256">
-        <v>0.5</v>
+        <v>0.50000201870668182</v>
       </c>
       <c r="E256">
         <v>0</v>
       </c>
       <c r="F256">
-        <v>0.5</v>
+        <v>0.50000201870668182</v>
       </c>
       <c r="G256">
         <v>0</v>
@@ -8761,7 +8765,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>83</v>
       </c>
@@ -8793,7 +8797,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>85</v>
       </c>
@@ -8825,7 +8829,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>86</v>
       </c>
@@ -8857,7 +8861,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>87</v>
       </c>
@@ -8889,7 +8893,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>89</v>
       </c>
@@ -8921,7 +8925,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>90</v>
       </c>
@@ -8953,7 +8957,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>91</v>
       </c>
@@ -8987,165 +8991,165 @@
     </row>
     <row r="264" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
-        <v>99</v>
+        <v>303</v>
       </c>
       <c r="B264">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C264" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D264">
-        <v>0.49999999999999989</v>
+        <v>0.93834531164628254</v>
       </c>
       <c r="E264">
-        <v>0</v>
+        <v>0.93778878431026558</v>
       </c>
       <c r="F264">
-        <v>0.49999999999999989</v>
+        <v>0.93834531164628254</v>
       </c>
       <c r="G264">
-        <v>0</v>
+        <v>0.94265881952658803</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>0.93328743986589247</v>
       </c>
       <c r="I264">
-        <v>1</v>
+        <v>0.94355626775580825</v>
       </c>
       <c r="J264">
-        <v>0.5</v>
+        <v>0.93842185381085041</v>
       </c>
     </row>
     <row r="265" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
-        <v>104</v>
+        <v>298</v>
       </c>
       <c r="B265">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C265" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D265">
-        <v>0.49999999999999989</v>
+        <v>0.9375669314504268</v>
       </c>
       <c r="E265">
-        <v>0</v>
+        <v>0.93711059113044148</v>
       </c>
       <c r="F265">
-        <v>0.49999999999999989</v>
+        <v>0.9375669314504268</v>
       </c>
       <c r="G265">
-        <v>0</v>
+        <v>0.94045715292287679</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>0.93408965234330821</v>
       </c>
       <c r="I265">
-        <v>1</v>
+        <v>0.94120759942436794</v>
       </c>
       <c r="J265">
-        <v>0.5</v>
+        <v>0.93764862588383802</v>
       </c>
     </row>
     <row r="266" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
-        <v>109</v>
+        <v>293</v>
       </c>
       <c r="B266">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C266" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D266">
-        <v>0.49999999999999989</v>
+        <v>0.93614004118858507</v>
       </c>
       <c r="E266">
-        <v>0</v>
+        <v>0.93570963100234894</v>
       </c>
       <c r="F266">
-        <v>0.49999999999999989</v>
+        <v>0.93614004118858507</v>
       </c>
       <c r="G266">
-        <v>0</v>
+        <v>0.9382148922093263</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>0.93357790500044724</v>
       </c>
       <c r="I266">
-        <v>1</v>
+        <v>0.9388931076355671</v>
       </c>
       <c r="J266">
-        <v>0.5</v>
+        <v>0.93623550631800745</v>
       </c>
     </row>
     <row r="267" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
-        <v>114</v>
+        <v>288</v>
       </c>
       <c r="B267">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C267" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D267">
-        <v>0.49999999999999989</v>
+        <v>0.93393435043920481</v>
       </c>
       <c r="E267">
-        <v>0</v>
+        <v>0.9333527947452529</v>
       </c>
       <c r="F267">
-        <v>0.49999999999999989</v>
+        <v>0.93393435043920481</v>
       </c>
       <c r="G267">
-        <v>0</v>
+        <v>0.93767461847471023</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>0.92942973695530062</v>
       </c>
       <c r="I267">
-        <v>1</v>
+        <v>0.93866546798429173</v>
       </c>
       <c r="J267">
-        <v>0.5</v>
+        <v>0.93404760246979623</v>
       </c>
     </row>
     <row r="268" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
-        <v>119</v>
+        <v>283</v>
       </c>
       <c r="B268">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C268" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="D268">
-        <v>0.49999999999999989</v>
+        <v>0.92887445887445896</v>
       </c>
       <c r="E268">
-        <v>0</v>
+        <v>0.92793017318975202</v>
       </c>
       <c r="F268">
-        <v>0.49999999999999989</v>
+        <v>0.92887445887445896</v>
       </c>
       <c r="G268">
-        <v>0</v>
+        <v>0.93446063477940111</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>0.92182472372641955</v>
       </c>
       <c r="I268">
-        <v>1</v>
+        <v>0.93614996218733781</v>
       </c>
       <c r="J268">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.92898734295687846</v>
+      </c>
+    </row>
+    <row r="269" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>130</v>
       </c>
@@ -9177,7 +9181,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>132</v>
       </c>
@@ -9209,7 +9213,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>133</v>
       </c>
@@ -9241,7 +9245,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>134</v>
       </c>
@@ -9273,7 +9277,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>136</v>
       </c>
@@ -9305,7 +9309,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>137</v>
       </c>
@@ -9337,7 +9341,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>138</v>
       </c>
@@ -9371,165 +9375,165 @@
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
-        <v>146</v>
+        <v>305</v>
       </c>
       <c r="B276">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C276" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="D276">
-        <v>0.49999713645628041</v>
+        <v>0.86046358172571757</v>
       </c>
       <c r="E276">
-        <v>0</v>
+        <v>0.86724150710231018</v>
       </c>
       <c r="F276">
-        <v>0.49999713645628041</v>
+        <v>0.86046358172571757</v>
       </c>
       <c r="G276">
-        <v>0</v>
+        <v>0.82328710889247791</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>0.91718128275351585</v>
       </c>
       <c r="I276">
-        <v>1</v>
+        <v>0.80463818881917859</v>
       </c>
       <c r="J276">
-        <v>0.5</v>
+        <v>0.86090973578634733</v>
       </c>
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
-        <v>151</v>
+        <v>300</v>
       </c>
       <c r="B277">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C277" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D277">
-        <v>0.49999713645628041</v>
+        <v>0.85864624049090077</v>
       </c>
       <c r="E277">
-        <v>0</v>
+        <v>0.86576140540439295</v>
       </c>
       <c r="F277">
-        <v>0.49999713645628041</v>
+        <v>0.85864624049090077</v>
       </c>
       <c r="G277">
-        <v>0</v>
+        <v>0.82064025433567256</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>0.91726842527926333</v>
       </c>
       <c r="I277">
-        <v>1</v>
+        <v>0.80108158362884452</v>
       </c>
       <c r="J277">
-        <v>0.5</v>
+        <v>0.85917500445405404</v>
       </c>
     </row>
     <row r="278" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
-        <v>156</v>
+        <v>295</v>
       </c>
       <c r="B278">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C278" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D278">
-        <v>0.49999713645628041</v>
+        <v>0.85579330055058223</v>
       </c>
       <c r="E278">
-        <v>0</v>
+        <v>0.8634716888650783</v>
       </c>
       <c r="F278">
-        <v>0.49999713645628041</v>
+        <v>0.85579330055058223</v>
       </c>
       <c r="G278">
-        <v>0</v>
+        <v>0.81649496121934884</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>0.9173315623028071</v>
       </c>
       <c r="I278">
-        <v>1</v>
+        <v>0.79544068138999624</v>
       </c>
       <c r="J278">
-        <v>0.5</v>
+        <v>0.85638612184640162</v>
       </c>
     </row>
     <row r="279" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
-        <v>161</v>
+        <v>290</v>
       </c>
       <c r="B279">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C279" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D279">
-        <v>0.49999713645628041</v>
+        <v>0.8537145378892953</v>
       </c>
       <c r="E279">
-        <v>0</v>
+        <v>0.8620036946622015</v>
       </c>
       <c r="F279">
-        <v>0.49999713645628041</v>
+        <v>0.8537145378892953</v>
       </c>
       <c r="G279">
-        <v>0</v>
+        <v>0.81251312472100068</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>0.91914383114648135</v>
       </c>
       <c r="I279">
-        <v>1</v>
+        <v>0.78964845827110119</v>
       </c>
       <c r="J279">
-        <v>0.5</v>
+        <v>0.85439614470879133</v>
       </c>
     </row>
     <row r="280" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
-        <v>166</v>
+        <v>285</v>
       </c>
       <c r="B280">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C280" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="D280">
-        <v>0.49999713645628041</v>
+        <v>0.83917580801075942</v>
       </c>
       <c r="E280">
-        <v>0</v>
+        <v>0.85068849863200924</v>
       </c>
       <c r="F280">
-        <v>0.49999713645628041</v>
+        <v>0.83917580801075942</v>
       </c>
       <c r="G280">
-        <v>0</v>
+        <v>0.79161558294628132</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>0.92069892442029611</v>
       </c>
       <c r="I280">
-        <v>1</v>
+        <v>0.75900596613172544</v>
       </c>
       <c r="J280">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.83985244527601055</v>
+      </c>
+    </row>
+    <row r="281" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>177</v>
       </c>
@@ -9561,7 +9565,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>179</v>
       </c>
@@ -9593,7 +9597,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>180</v>
       </c>
@@ -9625,7 +9629,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>181</v>
       </c>
@@ -9657,7 +9661,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>183</v>
       </c>
@@ -9689,7 +9693,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>184</v>
       </c>
@@ -9721,7 +9725,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>185</v>
       </c>
@@ -9755,165 +9759,165 @@
     </row>
     <row r="288" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
-        <v>193</v>
+        <v>289</v>
       </c>
       <c r="B288">
+        <v>25</v>
+      </c>
+      <c r="C288" t="s">
         <v>16</v>
       </c>
-      <c r="C288" t="s">
-        <v>14</v>
-      </c>
       <c r="D288">
-        <v>0.49999703461840389</v>
+        <v>0.83399024923296783</v>
       </c>
       <c r="E288">
-        <v>0</v>
+        <v>0.82903912719841333</v>
       </c>
       <c r="F288">
-        <v>0.49999703461840389</v>
+        <v>0.83399024923296783</v>
       </c>
       <c r="G288">
-        <v>0</v>
+        <v>0.85245904971540454</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>0.80783123474553564</v>
       </c>
       <c r="I288">
-        <v>1</v>
+        <v>0.8608734314854104</v>
       </c>
       <c r="J288">
-        <v>0.5</v>
+        <v>0.83435233311547263</v>
       </c>
     </row>
     <row r="289" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
-        <v>198</v>
+        <v>294</v>
       </c>
       <c r="B289">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C289" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D289">
-        <v>0.49999703461840389</v>
+        <v>0.83399024923296783</v>
       </c>
       <c r="E289">
-        <v>0</v>
+        <v>0.82903912719841333</v>
       </c>
       <c r="F289">
-        <v>0.49999703461840389</v>
+        <v>0.83399024923296783</v>
       </c>
       <c r="G289">
-        <v>0</v>
+        <v>0.85245904971540454</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>0.80783123474553564</v>
       </c>
       <c r="I289">
-        <v>1</v>
+        <v>0.8608734314854104</v>
       </c>
       <c r="J289">
-        <v>0.5</v>
+        <v>0.83435233311547263</v>
       </c>
     </row>
     <row r="290" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
-        <v>203</v>
+        <v>284</v>
       </c>
       <c r="B290">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C290" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D290">
-        <v>0.49999703461840389</v>
+        <v>0.83399108981633274</v>
       </c>
       <c r="E290">
-        <v>0</v>
+        <v>0.82901615047359867</v>
       </c>
       <c r="F290">
-        <v>0.49999703461840389</v>
+        <v>0.83399108981633274</v>
       </c>
       <c r="G290">
-        <v>0</v>
+        <v>0.85252221953012386</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>0.80780849005818633</v>
       </c>
       <c r="I290">
-        <v>1</v>
+        <v>0.86087650787228742</v>
       </c>
       <c r="J290">
-        <v>0.5</v>
+        <v>0.83434249896523671</v>
       </c>
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
-        <v>208</v>
+        <v>299</v>
       </c>
       <c r="B291">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C291" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D291">
-        <v>0.49999703461840389</v>
+        <v>0.83386037910309752</v>
       </c>
       <c r="E291">
-        <v>0</v>
+        <v>0.82893508853207432</v>
       </c>
       <c r="F291">
-        <v>0.49999703461840389</v>
+        <v>0.83386037910309752</v>
       </c>
       <c r="G291">
-        <v>0</v>
+        <v>0.85225163504939105</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>0.80783123474553564</v>
       </c>
       <c r="I291">
-        <v>1</v>
+        <v>0.86061027359067355</v>
       </c>
       <c r="J291">
-        <v>0.5</v>
+        <v>0.83422075416810448</v>
       </c>
     </row>
     <row r="292" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
-        <v>213</v>
+        <v>304</v>
       </c>
       <c r="B292">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C292" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D292">
-        <v>0.49999703461840389</v>
+        <v>0.83386037910309752</v>
       </c>
       <c r="E292">
-        <v>0</v>
+        <v>0.82893508853207432</v>
       </c>
       <c r="F292">
-        <v>0.49999703461840389</v>
+        <v>0.83386037910309752</v>
       </c>
       <c r="G292">
-        <v>0</v>
+        <v>0.85225163504939105</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>0.80783123474553564</v>
       </c>
       <c r="I292">
-        <v>1</v>
+        <v>0.86061027359067355</v>
       </c>
       <c r="J292">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.83422075416810448</v>
+      </c>
+    </row>
+    <row r="293" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>224</v>
       </c>
@@ -9945,7 +9949,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>226</v>
       </c>
@@ -9977,7 +9981,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>227</v>
       </c>
@@ -10009,7 +10013,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>228</v>
       </c>
@@ -10041,7 +10045,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>230</v>
       </c>
@@ -10073,7 +10077,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>231</v>
       </c>
@@ -10105,7 +10109,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>232</v>
       </c>
@@ -10139,165 +10143,165 @@
     </row>
     <row r="300" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
-        <v>240</v>
+        <v>286</v>
       </c>
       <c r="B300">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C300" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D300">
-        <v>0.50000201870668182</v>
+        <v>0.76350397175639884</v>
       </c>
       <c r="E300">
-        <v>0</v>
+        <v>0.759533851507595</v>
       </c>
       <c r="F300">
-        <v>0.50000201870668182</v>
+        <v>0.76350397175639884</v>
       </c>
       <c r="G300">
-        <v>0</v>
+        <v>0.77174561228615246</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>0.74908085217258991</v>
       </c>
       <c r="I300">
-        <v>1</v>
+        <v>0.77835922151801273</v>
       </c>
       <c r="J300">
-        <v>0.5</v>
+        <v>0.76372003684530132</v>
       </c>
     </row>
     <row r="301" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
-        <v>245</v>
+        <v>291</v>
       </c>
       <c r="B301">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C301" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D301">
-        <v>0.50000201870668182</v>
+        <v>0.75428655486907914</v>
       </c>
       <c r="E301">
-        <v>0</v>
+        <v>0.75149727437971026</v>
       </c>
       <c r="F301">
-        <v>0.50000201870668182</v>
+        <v>0.75428655486907914</v>
       </c>
       <c r="G301">
-        <v>0</v>
+        <v>0.75939368922964445</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>0.7453736152813546</v>
       </c>
       <c r="I301">
-        <v>1</v>
+        <v>0.76408091904985398</v>
       </c>
       <c r="J301">
-        <v>0.5</v>
+        <v>0.75472726716560445</v>
       </c>
     </row>
     <row r="302" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
-        <v>250</v>
+        <v>296</v>
       </c>
       <c r="B302">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C302" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D302">
-        <v>0.50000201870668182</v>
+        <v>0.75376833522464592</v>
       </c>
       <c r="E302">
-        <v>0</v>
+        <v>0.7508853804550536</v>
       </c>
       <c r="F302">
-        <v>0.50000201870668182</v>
+        <v>0.75376833522464592</v>
       </c>
       <c r="G302">
-        <v>0</v>
+        <v>0.75918895240240858</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>0.74433506217106038</v>
       </c>
       <c r="I302">
-        <v>1</v>
+        <v>0.7640951368562654</v>
       </c>
       <c r="J302">
-        <v>0.5</v>
+        <v>0.75421509951366295</v>
       </c>
     </row>
     <row r="303" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
-        <v>255</v>
+        <v>301</v>
       </c>
       <c r="B303">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C303" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D303">
-        <v>0.50000201870668182</v>
+        <v>0.75233976379607459</v>
       </c>
       <c r="E303">
-        <v>0</v>
+        <v>0.75001775557069417</v>
       </c>
       <c r="F303">
-        <v>0.50000201870668182</v>
+        <v>0.75233976379607459</v>
       </c>
       <c r="G303">
-        <v>0</v>
+        <v>0.75641693866634285</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>0.74535485105911803</v>
       </c>
       <c r="I303">
-        <v>1</v>
+        <v>0.76024533857862242</v>
       </c>
       <c r="J303">
-        <v>0.5</v>
+        <v>0.75280009481887022</v>
       </c>
     </row>
     <row r="304" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
-        <v>260</v>
+        <v>306</v>
       </c>
       <c r="B304">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C304" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D304">
-        <v>0.50000201870668182</v>
+        <v>0.75143235405371334</v>
       </c>
       <c r="E304">
-        <v>0</v>
+        <v>0.74920969999157871</v>
       </c>
       <c r="F304">
-        <v>0.50000201870668182</v>
+        <v>0.75143235405371334</v>
       </c>
       <c r="G304">
-        <v>0</v>
+        <v>0.75534188114229384</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>0.74487355783324072</v>
       </c>
       <c r="I304">
-        <v>1</v>
+        <v>0.75898461740871492</v>
       </c>
       <c r="J304">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.75192908762097777</v>
+      </c>
+    </row>
+    <row r="305" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>271</v>
       </c>
@@ -10329,7 +10333,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>273</v>
       </c>
@@ -10361,7 +10365,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>274</v>
       </c>
@@ -10393,7 +10397,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>275</v>
       </c>
@@ -10425,7 +10429,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>277</v>
       </c>
@@ -10457,7 +10461,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>278</v>
       </c>
@@ -10489,7 +10493,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>279</v>
       </c>
@@ -10681,7 +10685,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>318</v>
       </c>
@@ -10713,7 +10717,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
         <v>320</v>
       </c>
@@ -10745,7 +10749,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="319" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <v>321</v>
       </c>
@@ -10777,7 +10781,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <v>322</v>
       </c>
@@ -10809,7 +10813,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="321" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <v>324</v>
       </c>
@@ -10841,7 +10845,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="322" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <v>325</v>
       </c>
@@ -10873,7 +10877,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="323" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
         <v>326</v>
       </c>
@@ -10905,7 +10909,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="324" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <v>186</v>
       </c>
@@ -10937,7 +10941,7 @@
         <v>0.25225186562764262</v>
       </c>
     </row>
-    <row r="325" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
         <v>233</v>
       </c>
@@ -10969,7 +10973,7 @@
         <v>0.25171596552379422</v>
       </c>
     </row>
-    <row r="326" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <v>280</v>
       </c>
@@ -11001,7 +11005,7 @@
         <v>0.25170216861311639</v>
       </c>
     </row>
-    <row r="327" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>327</v>
       </c>
@@ -11033,7 +11037,7 @@
         <v>0.25164606283506907</v>
       </c>
     </row>
-    <row r="328" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
         <v>45</v>
       </c>
@@ -11065,7 +11069,7 @@
         <v>0.25157386828679662</v>
       </c>
     </row>
-    <row r="329" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
         <v>92</v>
       </c>
@@ -11097,7 +11101,7 @@
         <v>0.25123015396572013</v>
       </c>
     </row>
-    <row r="330" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <v>139</v>
       </c>
@@ -11130,6 +11134,40 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J330">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="LinearSVM_0.2"/>
+        <filter val="LinearSVM_0.5"/>
+        <filter val="LinearSVM_0.7"/>
+        <filter val="LinearSVM_1"/>
+        <filter val="LinearSVM_1.3"/>
+        <filter val="SVM_linear_C:_0.2"/>
+        <filter val="SVM_linear_C:_0.5"/>
+        <filter val="SVM_linear_C:_0.7"/>
+        <filter val="SVM_linear_C:_1"/>
+        <filter val="SVM_linear_C:_1.3"/>
+        <filter val="SVM_poly_C:_0.2"/>
+        <filter val="SVM_poly_C:_0.5"/>
+        <filter val="SVM_poly_C:_0.7"/>
+        <filter val="SVM_poly_C:_1"/>
+        <filter val="SVM_poly_C:_1.3"/>
+        <filter val="SVM_rbf_C:_0.2"/>
+        <filter val="SVM_rbf_C:_0.5"/>
+        <filter val="SVM_rbf_C:_0.7"/>
+        <filter val="SVM_rbf_C:_1"/>
+        <filter val="SVM_rbf_C:_1.3"/>
+        <filter val="SVM_sigmoid_C:_0.2"/>
+        <filter val="SVM_sigmoid_C:_0.5"/>
+        <filter val="SVM_sigmoid_C:_0.7"/>
+        <filter val="SVM_sigmoid_C:_1"/>
+        <filter val="SVM_sigmoid_C:_1.3"/>
+      </filters>
+    </filterColumn>
+    <sortState ref="A58:J316">
+      <sortCondition ref="B1"/>
+    </sortState>
+  </autoFilter>
   <sortState ref="A2:J330">
     <sortCondition descending="1" ref="J1"/>
   </sortState>
